--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1064.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1064.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.07095254494944289</v>
+        <v>0.06395254494944289</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.08142881742416432</v>
+        <v>0.09542881742416431</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1219050898988858</v>
+        <v>0.1149050898988858</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.002884778923370351</v>
+        <v>0.002584169628310834</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.02948633463962219</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.002884778923370351</v>
+        <v>0.002584169628310834</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.02948633463962219</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.003342931725851521</v>
+        <v>0.003899961311934769</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.02948633463962219</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.004911624189038725</v>
+        <v>0.004753887031239962</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.02948633463962219</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.005661086986464639</v>
+        <v>0.005094426455696759</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.05897266927924438</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.005661086986464639</v>
+        <v>0.005094426455696759</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.05897266927924438</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.006489820840976256</v>
+        <v>0.007730293380090934</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.05897266927924438</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.009881824896308591</v>
+        <v>0.00937847287472288</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.05897266927924438</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.008288322835830683</v>
+        <v>0.007728562329699054</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.08845900391886656</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.008288322835830683</v>
+        <v>0.007728562329699054</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.08845900391886656</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.009774472175881704</v>
+        <v>0.0112114820670763</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.08845900391886656</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01469906389840613</v>
+        <v>0.01353343708695096</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.08845900391886656</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.01121024343658948</v>
+        <v>0.009759984090746731</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1179453385584888</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.01121024343658948</v>
+        <v>0.009759984090746731</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1179453385584888</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.01287171868628418</v>
+        <v>0.01466935242743194</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1179453385584888</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.01929806087533627</v>
+        <v>0.01797961412623048</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1179453385584888</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.013433199096275</v>
+        <v>0.01230510284301248</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1474316731981109</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.013433199096275</v>
+        <v>0.01230510284301248</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1474316731981109</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.01562331323942944</v>
+        <v>0.01836503763711629</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1474316731981109</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.02340073964417506</v>
+        <v>0.02192092775494068</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1474316731981109</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01604131161983583</v>
+        <v>0.01410579010908046</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.1769180078377331</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01604131161983583</v>
+        <v>0.01410579010908046</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.1769180078377331</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01821469582632529</v>
+        <v>0.02121625199992944</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.1769180078377331</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.02673272711695973</v>
+        <v>0.02527095171301486</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.1769180078377331</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01820074851365817</v>
+        <v>0.01592410419992786</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.2064043424773553</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01820074851365817</v>
+        <v>0.01592410419992786</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.2064043424773553</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.02076847176881624</v>
+        <v>0.02381394302383518</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.2064043424773553</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.03097356573127993</v>
+        <v>0.02878292624643801</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.2064043424773553</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.0195938232924219</v>
+        <v>0.01789927124378945</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2358906771169775</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.0195938232924219</v>
+        <v>0.01789927124378945</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2358906771169775</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.02306187360854446</v>
+        <v>0.02605799094693263</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2358906771169775</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.03409298834826093</v>
+        <v>0.03249808518344144</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2358906771169775</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.02138888061082784</v>
+        <v>0.01932889857948264</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.2653770117565997</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.02138888061082784</v>
+        <v>0.01932889857948264</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.2653770117565997</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.02468048725542796</v>
+        <v>0.02866800067494881</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.2653770117565997</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.03629393521168139</v>
+        <v>0.03423079646478141</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.2653770117565997</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.02303532790269734</v>
+        <v>0.02070523535634214</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.2948633463962219</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.02303532790269734</v>
+        <v>0.02070523535634214</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.2948633463962219</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.02706219595700012</v>
+        <v>0.03086964710303101</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.2948633463962219</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.03917774038431219</v>
+        <v>0.03837069146248109</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.2948633463962219</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02475537248539833</v>
+        <v>0.02261229683162084</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3243496810358441</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02475537248539833</v>
+        <v>0.02261229683162084</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3243496810358441</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.02879305849326344</v>
+        <v>0.0331665870349153</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3243496810358441</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.04285991739060699</v>
+        <v>0.04072059866082919</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3243496810358441</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02624368138066507</v>
+        <v>0.02340005423623985</v>
       </c>
       <c r="G77" t="n">
         <v>0.3538360156754662</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02624368138066507</v>
+        <v>0.02340005423623985</v>
       </c>
       <c r="K77" t="n">
         <v>0.3538360156754662</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03056494524499783</v>
+        <v>0.03527064253586021</v>
       </c>
       <c r="M77" t="n">
         <v>0.3538360156754662</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0460461268370834</v>
+        <v>0.04216150356488629</v>
       </c>
       <c r="O77" t="n">
         <v>0.3538360156754662</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.0281135498809796</v>
+        <v>0.02524944834720566</v>
       </c>
       <c r="G78" t="n">
         <v>0.3833223503150884</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0281135498809796</v>
+        <v>0.02524944834720566</v>
       </c>
       <c r="K78" t="n">
         <v>0.3833223503150884</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0313655706709316</v>
+        <v>0.03808218823761793</v>
       </c>
       <c r="M78" t="n">
         <v>0.3833223503150884</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04728220902645714</v>
+        <v>0.04547859120498943</v>
       </c>
       <c r="O78" t="n">
         <v>0.3833223503150884</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.02903695037194255</v>
+        <v>0.02629415899653888</v>
       </c>
       <c r="G79" t="n">
         <v>0.4128086849547106</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02903695037194255</v>
+        <v>0.02629415899653888</v>
       </c>
       <c r="K79" t="n">
         <v>0.4128086849547106</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03372170884018102</v>
+        <v>0.03890941662908835</v>
       </c>
       <c r="M79" t="n">
         <v>0.4128086849547106</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05054745536647955</v>
+        <v>0.04709786406986925</v>
       </c>
       <c r="O79" t="n">
         <v>0.4128086849547106</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.0311518809526627</v>
+        <v>0.0272564113810885</v>
       </c>
       <c r="G80" t="n">
         <v>0.4422950195943328</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0311518809526627</v>
+        <v>0.0272564113810885</v>
       </c>
       <c r="K80" t="n">
         <v>0.4422950195943328</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03553086982722713</v>
+        <v>0.04047479686032326</v>
       </c>
       <c r="M80" t="n">
         <v>0.4422950195943328</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05309894163409064</v>
+        <v>0.04979800716982299</v>
       </c>
       <c r="O80" t="n">
         <v>0.4422950195943328</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03155013904699501</v>
+        <v>0.02923418806119992</v>
       </c>
       <c r="G81" t="n">
         <v>0.471781354233955</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03155013904699501</v>
+        <v>0.02923418806119992</v>
       </c>
       <c r="K81" t="n">
         <v>0.471781354233955</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03736679260292123</v>
+        <v>0.04363795823245914</v>
       </c>
       <c r="M81" t="n">
         <v>0.471781354233955</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05427908096441141</v>
+        <v>0.05246514253103272</v>
       </c>
       <c r="O81" t="n">
         <v>0.471781354233955</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03398028072832273</v>
+        <v>0.02977914966917467</v>
       </c>
       <c r="G82" t="n">
         <v>0.5012676888735772</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03398028072832273</v>
+        <v>0.02977914966917467</v>
       </c>
       <c r="K82" t="n">
         <v>0.5012676888735772</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03796265717722989</v>
+        <v>0.04540902896343177</v>
       </c>
       <c r="M82" t="n">
         <v>0.5012676888735772</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05824919695711003</v>
+        <v>0.05483718373143304</v>
       </c>
       <c r="O82" t="n">
         <v>0.5012676888735772</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03428188225567348</v>
+        <v>0.03146508870395324</v>
       </c>
       <c r="G83" t="n">
         <v>0.5307540235131993</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03428188225567348</v>
+        <v>0.03146508870395324</v>
       </c>
       <c r="K83" t="n">
         <v>0.5307540235131993</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03964314089090251</v>
+        <v>0.04655037553754696</v>
       </c>
       <c r="M83" t="n">
         <v>0.5307540235131993</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05926587268900711</v>
+        <v>0.05669528594147622</v>
       </c>
       <c r="O83" t="n">
         <v>0.5307540235131993</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.03604653389103434</v>
+        <v>0.03239335464110128</v>
       </c>
       <c r="G84" t="n">
         <v>0.5602403581528216</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03604653389103434</v>
+        <v>0.03239335464110128</v>
       </c>
       <c r="K84" t="n">
         <v>0.5602403581528216</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04160519640645183</v>
+        <v>0.04897934478061577</v>
       </c>
       <c r="M84" t="n">
         <v>0.5602403581528216</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06182120652851302</v>
+        <v>0.05870988291171873</v>
       </c>
       <c r="O84" t="n">
         <v>0.5602403581528216</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.03833968472888533</v>
+        <v>0.03427548631000809</v>
       </c>
       <c r="G85" t="n">
         <v>0.5897266927924437</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03833968472888533</v>
+        <v>0.03427548631000809</v>
       </c>
       <c r="K85" t="n">
         <v>0.5897266927924437</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04383402849832466</v>
+        <v>0.05050187218759272</v>
       </c>
       <c r="M85" t="n">
         <v>0.5897266927924437</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06503262200424378</v>
+        <v>0.0613981248841548</v>
       </c>
       <c r="O85" t="n">
         <v>0.5897266927924437</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.03917293313431532</v>
+        <v>0.03534073251830875</v>
       </c>
       <c r="G86" t="n">
         <v>0.619213027432066</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03917293313431532</v>
+        <v>0.03534073251830875</v>
       </c>
       <c r="K86" t="n">
         <v>0.619213027432066</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04445029856861903</v>
+        <v>0.0526593018055283</v>
       </c>
       <c r="M86" t="n">
         <v>0.619213027432066</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06722261755625214</v>
+        <v>0.06248232111612143</v>
       </c>
       <c r="O86" t="n">
         <v>0.619213027432066</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.04159253150552331</v>
+        <v>0.03747889147915645</v>
       </c>
       <c r="G87" t="n">
         <v>0.6486993620716881</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04159253150552331</v>
+        <v>0.03747889147915645</v>
       </c>
       <c r="K87" t="n">
         <v>0.6486993620716881</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04674963700285164</v>
+        <v>0.05455946864100734</v>
       </c>
       <c r="M87" t="n">
         <v>0.6486993620716881</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0721413692136542</v>
+        <v>0.06685408168254395</v>
       </c>
       <c r="O87" t="n">
         <v>0.6486993620716881</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04353827820788447</v>
+        <v>0.03942717386995837</v>
       </c>
       <c r="G88" t="n">
         <v>0.6781856967113103</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04353827820788447</v>
+        <v>0.03942717386995837</v>
       </c>
       <c r="K88" t="n">
         <v>0.6781856967113103</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04855931837589834</v>
+        <v>0.05721863611304483</v>
       </c>
       <c r="M88" t="n">
         <v>0.6781856967113103</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07517300498364536</v>
+        <v>0.06820667711706688</v>
       </c>
       <c r="O88" t="n">
         <v>0.6781856967113103</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.04466175903107428</v>
+        <v>0.04115124511838595</v>
       </c>
       <c r="G89" t="n">
         <v>0.7076720313509325</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04466175903107428</v>
+        <v>0.04115124511838595</v>
       </c>
       <c r="K89" t="n">
         <v>0.7076720313509325</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05193197966655955</v>
+        <v>0.06100506720032532</v>
       </c>
       <c r="M89" t="n">
         <v>0.7076720313509325</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07594467163704849</v>
+        <v>0.07145308762994843</v>
       </c>
       <c r="O89" t="n">
         <v>0.7076720313509325</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04549626584543126</v>
+        <v>0.04136406672173505</v>
       </c>
       <c r="G90" t="n">
         <v>0.7371583659905547</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04549626584543126</v>
+        <v>0.04136406672173505</v>
       </c>
       <c r="K90" t="n">
         <v>0.7371583659905547</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05344273920452008</v>
+        <v>0.06176274006735629</v>
       </c>
       <c r="M90" t="n">
         <v>0.7371583659905547</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08136232820804579</v>
+        <v>0.07465877568265754</v>
       </c>
       <c r="O90" t="n">
         <v>0.7371583659905547</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04810975228414752</v>
+        <v>0.04425987919908062</v>
       </c>
       <c r="G91" t="n">
         <v>0.7666447006301769</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04810975228414752</v>
+        <v>0.04425987919908062</v>
       </c>
       <c r="K91" t="n">
         <v>0.7666447006301769</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05496928767193095</v>
+        <v>0.06504711044692875</v>
       </c>
       <c r="M91" t="n">
         <v>0.7666447006301769</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0840697941179842</v>
+        <v>0.07719808104208503</v>
       </c>
       <c r="O91" t="n">
         <v>0.7666447006301769</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04908289273580983</v>
+        <v>0.04615001898536635</v>
       </c>
       <c r="G92" t="n">
         <v>0.7961310352697991</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04908289273580983</v>
+        <v>0.04615001898536635</v>
       </c>
       <c r="K92" t="n">
         <v>0.7961310352697991</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0566107718531203</v>
+        <v>0.06778511141831217</v>
       </c>
       <c r="M92" t="n">
         <v>0.7961310352697991</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08483218391100442</v>
+        <v>0.08016009512604781</v>
       </c>
       <c r="O92" t="n">
         <v>0.7961310352697991</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05103668044618222</v>
+        <v>0.04713707720902881</v>
       </c>
       <c r="G93" t="n">
         <v>0.8256173699094213</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05103668044618222</v>
+        <v>0.04713707720902881</v>
       </c>
       <c r="K93" t="n">
         <v>0.8256173699094213</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05857407983591524</v>
+        <v>0.06932823326095808</v>
       </c>
       <c r="M93" t="n">
         <v>0.8256173699094213</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0903148523978681</v>
+        <v>0.08137155919568263</v>
       </c>
       <c r="O93" t="n">
         <v>0.8256173699094213</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05283416934890139</v>
+        <v>0.04928577838866863</v>
       </c>
       <c r="G94" t="n">
         <v>0.8551037045490435</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05283416934890139</v>
+        <v>0.04928577838866863</v>
       </c>
       <c r="K94" t="n">
         <v>0.8551037045490435</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05954862067245786</v>
+        <v>0.07171616011618823</v>
       </c>
       <c r="M94" t="n">
         <v>0.8551037045490435</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09134145843107878</v>
+        <v>0.08473412253843209</v>
       </c>
       <c r="O94" t="n">
         <v>0.8551037045490435</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05409892804874978</v>
+        <v>0.04904736553001962</v>
       </c>
       <c r="G95" t="n">
         <v>0.8845900391886656</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05409892804874978</v>
+        <v>0.04904736553001962</v>
       </c>
       <c r="K95" t="n">
         <v>0.8845900391886656</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06157484765289166</v>
+        <v>0.0748882907663237</v>
       </c>
       <c r="M95" t="n">
         <v>0.8845900391886656</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09609528291593691</v>
+        <v>0.08617916415030055</v>
       </c>
       <c r="O95" t="n">
         <v>0.8845900391886656</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05596503255120698</v>
+        <v>0.05144498242675741</v>
       </c>
       <c r="G96" t="n">
         <v>0.9140763738282879</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05596503255120698</v>
+        <v>0.05144498242675741</v>
       </c>
       <c r="K96" t="n">
         <v>0.9140763738282879</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06475759964555351</v>
+        <v>0.07454467626135668</v>
       </c>
       <c r="M96" t="n">
         <v>0.9140763738282879</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09636472087755214</v>
+        <v>0.08901210100905006</v>
       </c>
       <c r="O96" t="n">
         <v>0.9140763738282879</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05747763198785018</v>
+        <v>0.05191979049913211</v>
       </c>
       <c r="G97" t="n">
         <v>0.94356270846791</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05747763198785018</v>
+        <v>0.05191979049913211</v>
       </c>
       <c r="K97" t="n">
         <v>0.94356270846791</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06503180171229064</v>
+        <v>0.07807216060814004</v>
       </c>
       <c r="M97" t="n">
         <v>0.94356270846791</v>
       </c>
       <c r="N97" t="n">
-        <v>0.101273874017914</v>
+        <v>0.09032237053578092</v>
       </c>
       <c r="O97" t="n">
         <v>0.94356270846791</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05780340276329883</v>
+        <v>0.05440097504354724</v>
       </c>
       <c r="G98" t="n">
         <v>0.9730490431075322</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05780340276329883</v>
+        <v>0.05440097504354724</v>
       </c>
       <c r="K98" t="n">
         <v>0.9730490431075322</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06661382606631976</v>
+        <v>0.07848599059193354</v>
       </c>
       <c r="M98" t="n">
         <v>0.9730490431075322</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1030197655325752</v>
+        <v>0.09315574092374071</v>
       </c>
       <c r="O98" t="n">
         <v>0.9730490431075322</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06094244661826789</v>
+        <v>0.05583005507498796</v>
       </c>
       <c r="G99" t="n">
         <v>1.002535377747154</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06094244661826789</v>
+        <v>0.05583005507498796</v>
       </c>
       <c r="K99" t="n">
         <v>1.002535377747154</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07009435405358029</v>
+        <v>0.08032962977981413</v>
       </c>
       <c r="M99" t="n">
         <v>1.002535377747154</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1058300464505635</v>
+        <v>0.09519572190839123</v>
       </c>
       <c r="O99" t="n">
         <v>1.002535377747154</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.06147681128945768</v>
+        <v>0.05595080991057048</v>
       </c>
       <c r="G100" t="n">
         <v>1.032021712386777</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06147681128945768</v>
+        <v>0.05595080991057048</v>
       </c>
       <c r="K100" t="n">
         <v>1.032021712386777</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06942686077361636</v>
+        <v>0.08224590459597561</v>
       </c>
       <c r="M100" t="n">
         <v>1.032021712386777</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1049014916092227</v>
+        <v>0.09714120801330897</v>
       </c>
       <c r="O100" t="n">
         <v>1.032021712386777</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06196158834068747</v>
+        <v>0.05617147323171739</v>
       </c>
       <c r="G101" t="n">
         <v>1.061508047026399</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06196158834068747</v>
+        <v>0.05617147323171739</v>
       </c>
       <c r="K101" t="n">
         <v>1.061508047026399</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07050267762334464</v>
+        <v>0.08494356245226296</v>
       </c>
       <c r="M101" t="n">
         <v>1.061508047026399</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1104847082992051</v>
+        <v>0.09724383836444753</v>
       </c>
       <c r="O101" t="n">
         <v>1.061508047026399</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06273639448539729</v>
+        <v>0.05823480925128429</v>
       </c>
       <c r="G102" t="n">
         <v>1.090994381666021</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06273639448539729</v>
+        <v>0.05823480925128429</v>
       </c>
       <c r="K102" t="n">
         <v>1.090994381666021</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07092202962234982</v>
+        <v>0.08392691502325797</v>
       </c>
       <c r="M102" t="n">
         <v>1.090994381666021</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1110987073122062</v>
+        <v>0.1016508302220542</v>
       </c>
       <c r="O102" t="n">
         <v>1.090994381666021</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06509138761359502</v>
+        <v>0.05866227718905816</v>
       </c>
       <c r="G103" t="n">
         <v>1.120480716305643</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06509138761359502</v>
+        <v>0.05866227718905816</v>
       </c>
       <c r="K103" t="n">
         <v>1.120480716305643</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07266527020383551</v>
+        <v>0.08696035469381573</v>
       </c>
       <c r="M103" t="n">
         <v>1.120480716305643</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1099296127705273</v>
+        <v>0.1027174599038055</v>
       </c>
       <c r="O103" t="n">
         <v>1.120480716305643</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06374125689748164</v>
+        <v>0.05995390272777448</v>
       </c>
       <c r="G104" t="n">
         <v>1.149967050945265</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06374125689748164</v>
+        <v>0.05995390272777448</v>
       </c>
       <c r="K104" t="n">
         <v>1.149967050945265</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07391691572012257</v>
+        <v>0.08643290312304627</v>
       </c>
       <c r="M104" t="n">
         <v>1.149967050945265</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1119937868435464</v>
+        <v>0.1028995544206915</v>
       </c>
       <c r="O104" t="n">
         <v>1.149967050945265</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06449395080333485</v>
+        <v>0.05972084619615738</v>
       </c>
       <c r="G105" t="n">
         <v>1.179453385584887</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06449395080333485</v>
+        <v>0.05972084619615738</v>
       </c>
       <c r="K105" t="n">
         <v>1.179453385584887</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07498868422301905</v>
+        <v>0.08695737907100966</v>
       </c>
       <c r="M105" t="n">
         <v>1.179453385584887</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1114913618603484</v>
+        <v>0.101053955737099</v>
       </c>
       <c r="O105" t="n">
         <v>1.179453385584887</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06628099235681184</v>
+        <v>0.05893236828553867</v>
       </c>
       <c r="G106" t="n">
         <v>1.20893972022451</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06628099235681184</v>
+        <v>0.05893236828553867</v>
       </c>
       <c r="K106" t="n">
         <v>1.20893972022451</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07558192339098728</v>
+        <v>0.08771926970390799</v>
       </c>
       <c r="M106" t="n">
         <v>1.20893972022451</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1152220329284912</v>
+        <v>0.1048361911330805</v>
       </c>
       <c r="O106" t="n">
         <v>1.20893972022451</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06691719406802658</v>
+        <v>0.06028665606230956</v>
       </c>
       <c r="G107" t="n">
         <v>1.238426054864132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06691719406802658</v>
+        <v>0.06028665606230956</v>
       </c>
       <c r="K107" t="n">
         <v>1.238426054864132</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07482340641143033</v>
+        <v>0.08990977750903094</v>
       </c>
       <c r="M107" t="n">
         <v>1.238426054864132</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1134478908731305</v>
+        <v>0.1032609154981431</v>
       </c>
       <c r="O107" t="n">
         <v>1.238426054864132</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06730935725392465</v>
+        <v>0.06105670307475339</v>
       </c>
       <c r="G108" t="n">
         <v>1.267912389503754</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06730935725392465</v>
+        <v>0.06105670307475339</v>
       </c>
       <c r="K108" t="n">
         <v>1.267912389503754</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07635319802003324</v>
+        <v>0.08976523207188242</v>
       </c>
       <c r="M108" t="n">
         <v>1.267912389503754</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1150578647227266</v>
+        <v>0.1032485440456249</v>
       </c>
       <c r="O108" t="n">
         <v>1.267912389503754</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06722188410802173</v>
+        <v>0.06158112462727735</v>
       </c>
       <c r="G109" t="n">
         <v>1.297398724143376</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06722188410802173</v>
+        <v>0.06158112462727735</v>
       </c>
       <c r="K109" t="n">
         <v>1.297398724143376</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07555164417699345</v>
+        <v>0.08797994682556716</v>
       </c>
       <c r="M109" t="n">
         <v>1.297398724143376</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1156659692063784</v>
+        <v>0.1047610268603701</v>
       </c>
       <c r="O109" t="n">
         <v>1.297398724143376</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06750107418659179</v>
+        <v>0.06172284783602883</v>
       </c>
       <c r="G110" t="n">
         <v>1.326885058782999</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06750107418659179</v>
+        <v>0.06172284783602883</v>
       </c>
       <c r="K110" t="n">
         <v>1.326885058782999</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07525997072082068</v>
+        <v>0.09052251285492449</v>
       </c>
       <c r="M110" t="n">
         <v>1.326885058782999</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1157490352866465</v>
+        <v>0.1067522152318932</v>
       </c>
       <c r="O110" t="n">
         <v>1.326885058782999</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06707327905100204</v>
+        <v>0.06052294013773583</v>
       </c>
       <c r="G111" t="n">
         <v>1.356371393422621</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06707327905100204</v>
+        <v>0.06052294013773583</v>
       </c>
       <c r="K111" t="n">
         <v>1.356371393422621</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07843548051753928</v>
+        <v>0.08899188412935979</v>
       </c>
       <c r="M111" t="n">
         <v>1.356371393422621</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1178721994897504</v>
+        <v>0.1096243288832318</v>
       </c>
       <c r="O111" t="n">
         <v>1.356371393422621</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06747509208066509</v>
+        <v>0.06260987585106884</v>
       </c>
       <c r="G112" t="n">
         <v>1.385857728062243</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06747509208066509</v>
+        <v>0.06260987585106884</v>
       </c>
       <c r="K112" t="n">
         <v>1.385857728062243</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07676621408854714</v>
+        <v>0.09047629919584581</v>
       </c>
       <c r="M112" t="n">
         <v>1.385857728062243</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1163018401852734</v>
+        <v>0.1096960205143733</v>
       </c>
       <c r="O112" t="n">
         <v>1.385857728062243</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06836952800773166</v>
+        <v>0.06214139413446237</v>
       </c>
       <c r="G113" t="n">
         <v>1.415344062701865</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06836952800773166</v>
+        <v>0.06214139413446237</v>
       </c>
       <c r="K113" t="n">
         <v>1.415344062701865</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07807756171355301</v>
+        <v>0.09173595567693828</v>
       </c>
       <c r="M113" t="n">
         <v>1.415344062701865</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1170198594459422</v>
+        <v>0.1099736889709477</v>
       </c>
       <c r="O113" t="n">
         <v>1.415344062701865</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06958084579484183</v>
+        <v>0.06117521122655373</v>
       </c>
       <c r="G114" t="n">
         <v>1.444830397341487</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06958084579484183</v>
+        <v>0.06117521122655373</v>
       </c>
       <c r="K114" t="n">
         <v>1.444830397341487</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07862185757538635</v>
+        <v>0.09043976787695579</v>
       </c>
       <c r="M114" t="n">
         <v>1.444830397341487</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1187004914155927</v>
+        <v>0.1089961166786339</v>
       </c>
       <c r="O114" t="n">
         <v>1.444830397341487</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06859502076751757</v>
+        <v>0.06255932808441313</v>
       </c>
       <c r="G115" t="n">
         <v>1.474316731981109</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06859502076751757</v>
+        <v>0.06255932808441313</v>
       </c>
       <c r="K115" t="n">
         <v>1.474316731981109</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0785738322475399</v>
+        <v>0.09388447675062925</v>
       </c>
       <c r="M115" t="n">
         <v>1.474316731981109</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1187464833907487</v>
+        <v>0.1120773277657025</v>
       </c>
       <c r="O115" t="n">
         <v>1.474316731981109</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06895626365406991</v>
+        <v>0.06289254687504037</v>
       </c>
       <c r="G116" t="n">
         <v>1.503803066620732</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06895626365406991</v>
+        <v>0.06289254687504037</v>
       </c>
       <c r="K116" t="n">
         <v>1.503803066620732</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07973483013791796</v>
+        <v>0.09197837616950141</v>
       </c>
       <c r="M116" t="n">
         <v>1.503803066620732</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1173728737496736</v>
+        <v>0.1116809093455337</v>
       </c>
       <c r="O116" t="n">
         <v>1.503803066620732</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.07040128338747238</v>
+        <v>0.06234918362063949</v>
       </c>
       <c r="G117" t="n">
         <v>1.533289401260354</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07040128338747238</v>
+        <v>0.06234918362063949</v>
       </c>
       <c r="K117" t="n">
         <v>1.533289401260354</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07824831217344468</v>
+        <v>0.09179852787407754</v>
       </c>
       <c r="M117" t="n">
         <v>1.533289401260354</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1193131370008833</v>
+        <v>0.1115435467373949</v>
       </c>
       <c r="O117" t="n">
         <v>1.533289401260354</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06829659908720487</v>
+        <v>0.06286825161702052</v>
       </c>
       <c r="G118" t="n">
         <v>1.562775735899976</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06829659908720487</v>
+        <v>0.06286825161702052</v>
       </c>
       <c r="K118" t="n">
         <v>1.562775735899976</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07943900917088471</v>
+        <v>0.09432274103008724</v>
       </c>
       <c r="M118" t="n">
         <v>1.562775735899976</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1213229940922811</v>
+        <v>0.1121016219953627</v>
       </c>
       <c r="O118" t="n">
         <v>1.562775735899976</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06873836917910918</v>
+        <v>0.06311346116805597</v>
       </c>
       <c r="G119" t="n">
         <v>1.592262070539598</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06873836917910918</v>
+        <v>0.06311346116805597</v>
       </c>
       <c r="K119" t="n">
         <v>1.592262070539598</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08168121145145603</v>
+        <v>0.09262182988714147</v>
       </c>
       <c r="M119" t="n">
         <v>1.592262070539598</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1193105733978108</v>
+        <v>0.1146792331469856</v>
       </c>
       <c r="O119" t="n">
         <v>1.592262070539598</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.07076934247368057</v>
+        <v>0.06283692558907532</v>
       </c>
       <c r="G120" t="n">
         <v>1.62174840517922</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07076934247368057</v>
+        <v>0.06283692558907532</v>
       </c>
       <c r="K120" t="n">
         <v>1.62174840517922</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08148089784514366</v>
+        <v>0.09262358577314046</v>
       </c>
       <c r="M120" t="n">
         <v>1.62174840517922</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1189795990197346</v>
+        <v>0.1133723632465325</v>
       </c>
       <c r="O120" t="n">
         <v>1.62174840517922</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.07019617874033131</v>
+        <v>0.06237431777650716</v>
       </c>
       <c r="G121" t="n">
         <v>1.651234739818843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.07019617874033131</v>
+        <v>0.06237431777650716</v>
       </c>
       <c r="K121" t="n">
         <v>1.651234739818843</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07982595331143927</v>
+        <v>0.09557410058778947</v>
       </c>
       <c r="M121" t="n">
         <v>1.651234739818843</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1208740684205566</v>
+        <v>0.1118938332538888</v>
       </c>
       <c r="O121" t="n">
         <v>1.651234739818843</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06999161515069033</v>
+        <v>0.06294973189784772</v>
       </c>
       <c r="G122" t="n">
         <v>1.680721074458465</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06999161515069033</v>
+        <v>0.06294973189784772</v>
       </c>
       <c r="K122" t="n">
         <v>1.680721074458465</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0811121697192809</v>
+        <v>0.09404978536861706</v>
       </c>
       <c r="M122" t="n">
         <v>1.680721074458465</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1228822907791397</v>
+        <v>0.1127009391556531</v>
       </c>
       <c r="O122" t="n">
         <v>1.680721074458465</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06955628571138285</v>
+        <v>0.06508343302479679</v>
       </c>
       <c r="G123" t="n">
         <v>1.710207409098087</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06955628571138285</v>
+        <v>0.06508343302479679</v>
       </c>
       <c r="K123" t="n">
         <v>1.710207409098087</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08232686367065263</v>
+        <v>0.09681131564928268</v>
       </c>
       <c r="M123" t="n">
         <v>1.710207409098087</v>
       </c>
       <c r="N123" t="n">
-        <v>0.12351998365591</v>
+        <v>0.1129329187923405</v>
       </c>
       <c r="O123" t="n">
         <v>1.710207409098087</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.07113693246891746</v>
+        <v>0.06529531544124201</v>
       </c>
       <c r="G124" t="n">
         <v>1.739693743737709</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07113693246891746</v>
+        <v>0.06529531544124201</v>
       </c>
       <c r="K124" t="n">
         <v>1.739693743737709</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08000172255583241</v>
+        <v>0.09524985144884525</v>
       </c>
       <c r="M124" t="n">
         <v>1.739693743737709</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1233324354913494</v>
+        <v>0.1145014401199729</v>
       </c>
       <c r="O124" t="n">
         <v>1.739693743737709</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.07087400517194782</v>
+        <v>0.06404341122378684</v>
       </c>
       <c r="G125" t="n">
         <v>1.769180078377331</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07087400517194782</v>
+        <v>0.06404341122378684</v>
       </c>
       <c r="K125" t="n">
         <v>1.769180078377331</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08099508122739256</v>
+        <v>0.09752084361654247</v>
       </c>
       <c r="M125" t="n">
         <v>1.769180078377331</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1225199620535433</v>
+        <v>0.1128181512870361</v>
       </c>
       <c r="O125" t="n">
         <v>1.769180078377331</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.07221257401845316</v>
+        <v>0.06400054714510441</v>
       </c>
       <c r="G126" t="n">
         <v>1.798666413016953</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07221257401845316</v>
+        <v>0.06400054714510441</v>
       </c>
       <c r="K126" t="n">
         <v>1.798666413016953</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08040621169944399</v>
+        <v>0.09539812052535626</v>
       </c>
       <c r="M126" t="n">
         <v>1.798666413016953</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1203270081900729</v>
+        <v>0.1159244807057762</v>
       </c>
       <c r="O126" t="n">
         <v>1.798666413016953</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.07256670583943622</v>
+        <v>0.06325994537348233</v>
       </c>
       <c r="G127" t="n">
         <v>1.828152747656576</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07256670583943622</v>
+        <v>0.06325994537348233</v>
       </c>
       <c r="K127" t="n">
         <v>1.828152747656576</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08249180840989064</v>
+        <v>0.09695873453686449</v>
       </c>
       <c r="M127" t="n">
         <v>1.828152747656576</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1216685149927741</v>
+        <v>0.1143035229880634</v>
       </c>
       <c r="O127" t="n">
         <v>1.828152747656576</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07228472729831503</v>
+        <v>0.06546339038189539</v>
       </c>
       <c r="G128" t="n">
         <v>1.857639082296198</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07228472729831503</v>
+        <v>0.06546339038189539</v>
       </c>
       <c r="K128" t="n">
         <v>1.857639082296198</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08265016759547253</v>
+        <v>0.09703977480193468</v>
       </c>
       <c r="M128" t="n">
         <v>1.857639082296198</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1236633878101552</v>
+        <v>0.115624146647427</v>
       </c>
       <c r="O128" t="n">
         <v>1.857639082296198</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07127181155128144</v>
+        <v>0.06402668380679491</v>
       </c>
       <c r="G129" t="n">
         <v>1.88712541693582</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07127181155128144</v>
+        <v>0.06402668380679491</v>
       </c>
       <c r="K129" t="n">
         <v>1.88712541693582</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08322238857644573</v>
+        <v>0.09540614776625428</v>
       </c>
       <c r="M129" t="n">
         <v>1.88712541693582</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1212346812081601</v>
+        <v>0.1164238467811405</v>
       </c>
       <c r="O129" t="n">
         <v>1.88712541693582</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07063941220348138</v>
+        <v>0.06493034343181366</v>
       </c>
       <c r="G130" t="n">
         <v>1.916611751575442</v>
       </c>
       <c r="J130" t="n">
-        <v>0.07063941220348138</v>
+        <v>0.06493034343181366</v>
       </c>
       <c r="K130" t="n">
         <v>1.916611751575442</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08155598313939257</v>
+        <v>0.09668858869095402</v>
       </c>
       <c r="M130" t="n">
         <v>1.916611751575442</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1210848038465076</v>
+        <v>0.113713473191697</v>
       </c>
       <c r="O130" t="n">
         <v>1.916611751575442</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07095254494944289</v>
+        <v>0.06395254494944289</v>
       </c>
       <c r="G131" t="n">
         <v>1.946098086215064</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07095254494944289</v>
+        <v>0.06395254494944289</v>
       </c>
       <c r="K131" t="n">
         <v>1.946098086215064</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08142881742416432</v>
+        <v>0.09542881742416431</v>
       </c>
       <c r="M131" t="n">
         <v>1.946098086215064</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1219050898988858</v>
+        <v>0.1149050898988858</v>
       </c>
       <c r="O131" t="n">
         <v>1.946098086215064</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07174009091551604</v>
+        <v>0.06375427983221744</v>
       </c>
       <c r="G132" t="n">
         <v>1.975584420854687</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07174009091551604</v>
+        <v>0.06375427983221744</v>
       </c>
       <c r="K132" t="n">
         <v>1.975584420854687</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08378207792944253</v>
+        <v>0.09678389211038024</v>
       </c>
       <c r="M132" t="n">
         <v>1.975584420854687</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1217831624657761</v>
+        <v>0.1178696278643257</v>
       </c>
       <c r="O132" t="n">
         <v>1.975584420854687</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07092401807690554</v>
+        <v>0.06437760064485092</v>
       </c>
       <c r="G133" t="n">
         <v>2.005070755494309</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07092401807690554</v>
+        <v>0.06437760064485092</v>
       </c>
       <c r="K133" t="n">
         <v>2.005070755494309</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0819248681821909</v>
+        <v>0.09684865274411442</v>
       </c>
       <c r="M133" t="n">
         <v>2.005070755494309</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1229355034307307</v>
+        <v>0.1163193846123074</v>
       </c>
       <c r="O133" t="n">
         <v>2.005070755494309</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07175694814949878</v>
+        <v>0.06449704114558381</v>
       </c>
       <c r="G134" t="n">
         <v>2.034557090133931</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07175694814949878</v>
+        <v>0.06449704114558381</v>
       </c>
       <c r="K134" t="n">
         <v>2.034557090133931</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0820579624133225</v>
+        <v>0.09798919069870685</v>
       </c>
       <c r="M134" t="n">
         <v>2.034557090133931</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1208990075462483</v>
+        <v>0.1173119552942381</v>
       </c>
       <c r="O134" t="n">
         <v>2.034557090133931</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07238075722731352</v>
+        <v>0.0639478013421451</v>
       </c>
       <c r="G135" t="n">
         <v>2.064043424773553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07238075722731352</v>
+        <v>0.0639478013421451</v>
       </c>
       <c r="K135" t="n">
         <v>2.064043424773553</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08213129386076262</v>
+        <v>0.09560929165302132</v>
       </c>
       <c r="M135" t="n">
         <v>2.064043424773553</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1242884544563312</v>
+        <v>0.1139219500151058</v>
       </c>
       <c r="O135" t="n">
         <v>2.064043424773553</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07068468583043484</v>
+        <v>0.06566767822468679</v>
       </c>
       <c r="G136" t="n">
         <v>2.093529759413175</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07068468583043484</v>
+        <v>0.06566767822468679</v>
       </c>
       <c r="K136" t="n">
         <v>2.093529759413175</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08282785034060434</v>
+        <v>0.09570874450663022</v>
       </c>
       <c r="M136" t="n">
         <v>2.093529759413175</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1225206693373305</v>
+        <v>0.1158764165594156</v>
       </c>
       <c r="O136" t="n">
         <v>2.093529759413175</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07047018288963611</v>
+        <v>0.06516272106528649</v>
       </c>
       <c r="G137" t="n">
         <v>2.123016094052797</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07047018288963611</v>
+        <v>0.06516272106528649</v>
       </c>
       <c r="K137" t="n">
         <v>2.123016094052797</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0807803906108137</v>
+        <v>0.0957985467141996</v>
       </c>
       <c r="M137" t="n">
         <v>2.123016094052797</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1229631221757565</v>
+        <v>0.1141986963295641</v>
       </c>
       <c r="O137" t="n">
         <v>2.123016094052797</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07027376483836668</v>
+        <v>0.06479669939071735</v>
       </c>
       <c r="G138" t="n">
         <v>2.15250242869242</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07027376483836668</v>
+        <v>0.06479669939071735</v>
       </c>
       <c r="K138" t="n">
         <v>2.15250242869242</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08270674926011208</v>
+        <v>0.09444381066640109</v>
       </c>
       <c r="M138" t="n">
         <v>2.15250242869242</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1238131492501247</v>
+        <v>0.1139618306547589</v>
       </c>
       <c r="O138" t="n">
         <v>2.15250242869242</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07130878756480967</v>
+        <v>0.06407430662959912</v>
       </c>
       <c r="G139" t="n">
         <v>2.181988763332042</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07130878756480967</v>
+        <v>0.06407430662959912</v>
       </c>
       <c r="K139" t="n">
         <v>2.181988763332042</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07974593589361269</v>
+        <v>0.09461277912834684</v>
       </c>
       <c r="M139" t="n">
         <v>2.181988763332042</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1234340643068804</v>
+        <v>0.117875167415397</v>
       </c>
       <c r="O139" t="n">
         <v>2.181988763332042</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07116221187333796</v>
+        <v>0.06386728694210896</v>
       </c>
       <c r="G140" t="n">
         <v>2.211475097971664</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07116221187333796</v>
+        <v>0.06386728694210896</v>
       </c>
       <c r="K140" t="n">
         <v>2.211475097971664</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08010429694884065</v>
+        <v>0.09551306342520484</v>
       </c>
       <c r="M140" t="n">
         <v>2.211475097971664</v>
       </c>
       <c r="N140" t="n">
-        <v>0.124021721332605</v>
+        <v>0.1159561092358016</v>
       </c>
       <c r="O140" t="n">
         <v>2.211475097971664</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0690348140660115</v>
+        <v>0.06302792895612096</v>
       </c>
       <c r="G141" t="n">
         <v>2.240961432611286</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0690348140660115</v>
+        <v>0.06302792895612096</v>
       </c>
       <c r="K141" t="n">
         <v>2.240961432611286</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08050801744720565</v>
+        <v>0.09676287901863012</v>
       </c>
       <c r="M141" t="n">
         <v>2.240961432611286</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1236405744336487</v>
+        <v>0.1171544270131419</v>
       </c>
       <c r="O141" t="n">
         <v>2.240961432611286</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06879551856441068</v>
+        <v>0.06455463137191293</v>
       </c>
       <c r="G142" t="n">
         <v>2.270447767250908</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06879551856441068</v>
+        <v>0.06455463137191293</v>
       </c>
       <c r="K142" t="n">
         <v>2.270447767250908</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07937702752700622</v>
+        <v>0.09533765258342365</v>
       </c>
       <c r="M142" t="n">
         <v>2.270447767250908</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1227311184537117</v>
+        <v>0.1141384623829847</v>
       </c>
       <c r="O142" t="n">
         <v>2.270447767250908</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06972534754388285</v>
+        <v>0.06349842879891848</v>
       </c>
       <c r="G143" t="n">
         <v>2.299934101890531</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06972534754388285</v>
+        <v>0.06349842879891848</v>
       </c>
       <c r="K143" t="n">
         <v>2.299934101890531</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07883682005875019</v>
+        <v>0.09608940194377445</v>
       </c>
       <c r="M143" t="n">
         <v>2.299934101890531</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1206255362517021</v>
+        <v>0.1151694880383768</v>
       </c>
       <c r="O143" t="n">
         <v>2.299934101890531</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06855216939294029</v>
+        <v>0.06254342129691122</v>
       </c>
       <c r="G144" t="n">
         <v>2.329420436530153</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06855216939294029</v>
+        <v>0.06254342129691122</v>
       </c>
       <c r="K144" t="n">
         <v>2.329420436530153</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08057215852640906</v>
+        <v>0.09551534952795508</v>
       </c>
       <c r="M144" t="n">
         <v>2.329420436530153</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1230141911464644</v>
+        <v>0.113932765055642</v>
       </c>
       <c r="O144" t="n">
         <v>2.329420436530153</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0695915696665365</v>
+        <v>0.06255472193553407</v>
       </c>
       <c r="G145" t="n">
         <v>2.358906771169775</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0695915696665365</v>
+        <v>0.06255472193553407</v>
       </c>
       <c r="K145" t="n">
         <v>2.358906771169775</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08030060720307081</v>
+        <v>0.09293970212710728</v>
       </c>
       <c r="M145" t="n">
         <v>2.358906771169775</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1222383048411724</v>
+        <v>0.1154093921148244</v>
       </c>
       <c r="O145" t="n">
         <v>2.358906771169775</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06745935629395487</v>
+        <v>0.06384374709100102</v>
       </c>
       <c r="G146" t="n">
         <v>2.388393105809397</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06745935629395487</v>
+        <v>0.06384374709100102</v>
       </c>
       <c r="K146" t="n">
         <v>2.388393105809397</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07820353894565123</v>
+        <v>0.09455684697843625</v>
       </c>
       <c r="M146" t="n">
         <v>2.388393105809397</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1191708799363627</v>
+        <v>0.1131192642659555</v>
       </c>
       <c r="O146" t="n">
         <v>2.388393105809397</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06909323864694462</v>
+        <v>0.06342164488455777</v>
       </c>
       <c r="G147" t="n">
         <v>2.41787944044902</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06909323864694462</v>
+        <v>0.06342164488455777</v>
       </c>
       <c r="K147" t="n">
         <v>2.41787944044902</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07911782915637085</v>
+        <v>0.09480787503663833</v>
       </c>
       <c r="M147" t="n">
         <v>2.41787944044902</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1195719635599959</v>
+        <v>0.1158089524742197</v>
       </c>
       <c r="O147" t="n">
         <v>2.41787944044902</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06711868330063572</v>
+        <v>0.06186971507030855</v>
       </c>
       <c r="G148" t="n">
         <v>2.447365775088642</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06711868330063572</v>
+        <v>0.06186971507030855</v>
       </c>
       <c r="K148" t="n">
         <v>2.447365775088642</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07614986840653631</v>
+        <v>0.09255824907725306</v>
       </c>
       <c r="M148" t="n">
         <v>2.447365775088642</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1199293418346529</v>
+        <v>0.1142237242022579</v>
       </c>
       <c r="O148" t="n">
         <v>2.447365775088642</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06700268513685982</v>
+        <v>0.06231352361415537</v>
       </c>
       <c r="G149" t="n">
         <v>2.476852109728264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06700268513685982</v>
+        <v>0.06231352361415537</v>
       </c>
       <c r="K149" t="n">
         <v>2.476852109728264</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07723489113126034</v>
+        <v>0.09321562958827218</v>
       </c>
       <c r="M149" t="n">
         <v>2.476852109728264</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1193589235427318</v>
+        <v>0.1135223125084351</v>
       </c>
       <c r="O149" t="n">
         <v>2.476852109728264</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0673692088138652</v>
+        <v>0.06201953581705828</v>
       </c>
       <c r="G150" t="n">
         <v>2.506338444367886</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0673692088138652</v>
+        <v>0.06201953581705828</v>
       </c>
       <c r="K150" t="n">
         <v>2.506338444367886</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07589925069236676</v>
+        <v>0.09393168346197552</v>
       </c>
       <c r="M150" t="n">
         <v>2.506338444367886</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1189532166095697</v>
+        <v>0.1121952038448588</v>
       </c>
       <c r="O150" t="n">
         <v>2.506338444367886</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0656872068983846</v>
+        <v>0.06133401192092564</v>
       </c>
       <c r="G151" t="n">
         <v>2.535824779007508</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0656872068983846</v>
+        <v>0.06133401192092564</v>
       </c>
       <c r="K151" t="n">
         <v>2.535824779007508</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07700322332318045</v>
+        <v>0.09457689327721297</v>
       </c>
       <c r="M151" t="n">
         <v>2.535824779007508</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1174104779799598</v>
+        <v>0.1147160765512737</v>
       </c>
       <c r="O151" t="n">
         <v>2.535824779007508</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06668487276547928</v>
+        <v>0.06231443411328121</v>
       </c>
       <c r="G152" t="n">
         <v>2.56531111364713</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06668487276547928</v>
+        <v>0.06231443411328121</v>
       </c>
       <c r="K152" t="n">
         <v>2.56531111364713</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07710690539785781</v>
+        <v>0.09164642824979653</v>
       </c>
       <c r="M152" t="n">
         <v>2.56531111364713</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1177926033134432</v>
+        <v>0.1129799733131083</v>
       </c>
       <c r="O152" t="n">
         <v>2.56531111364713</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06513115093998197</v>
+        <v>0.06123782208323846</v>
       </c>
       <c r="G153" t="n">
         <v>2.594797448286752</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06513115093998197</v>
+        <v>0.06123782208323846</v>
       </c>
       <c r="K153" t="n">
         <v>2.594797448286752</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07513802125965126</v>
+        <v>0.09126538466561078</v>
       </c>
       <c r="M153" t="n">
         <v>2.594797448286752</v>
       </c>
       <c r="N153" t="n">
-        <v>0.119730591869489</v>
+        <v>0.1135269038949065</v>
       </c>
       <c r="O153" t="n">
         <v>2.594797448286752</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06496758198489598</v>
+        <v>0.06153975071381457</v>
       </c>
       <c r="G154" t="n">
         <v>2.624283782926375</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06496758198489598</v>
+        <v>0.06153975071381457</v>
       </c>
       <c r="K154" t="n">
         <v>2.624283782926375</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07571585064518752</v>
+        <v>0.0930439356974786</v>
       </c>
       <c r="M154" t="n">
         <v>2.624283782926375</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1168548545590991</v>
+        <v>0.1106049460990467</v>
       </c>
       <c r="O154" t="n">
         <v>2.624283782926375</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06439690601300115</v>
+        <v>0.06035723854445894</v>
       </c>
       <c r="G155" t="n">
         <v>2.653770117565997</v>
       </c>
       <c r="J155" t="n">
-        <v>0.06439690601300115</v>
+        <v>0.06035723854445894</v>
       </c>
       <c r="K155" t="n">
         <v>2.653770117565997</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07396800056717159</v>
+        <v>0.09287034232853431</v>
       </c>
       <c r="M155" t="n">
         <v>2.653770117565997</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1183329955783554</v>
+        <v>0.1115467572291078</v>
       </c>
       <c r="O155" t="n">
         <v>2.653770117565997</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0649714275509933</v>
+        <v>0.06079925837364191</v>
       </c>
       <c r="G156" t="n">
         <v>2.683256452205619</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0649714275509933</v>
+        <v>0.06079925837364191</v>
       </c>
       <c r="K156" t="n">
         <v>2.683256452205619</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0743842915609621</v>
+        <v>0.09089228224486784</v>
       </c>
       <c r="M156" t="n">
         <v>2.683256452205619</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1157070250020926</v>
+        <v>0.1117453188088745</v>
       </c>
       <c r="O156" t="n">
         <v>2.683256452205619</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06335461483279191</v>
+        <v>0.06021339016569019</v>
       </c>
       <c r="G157" t="n">
         <v>2.712742786845241</v>
       </c>
       <c r="J157" t="n">
-        <v>0.06335461483279191</v>
+        <v>0.06021339016569019</v>
       </c>
       <c r="K157" t="n">
         <v>2.712742786845241</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07199151348680267</v>
+        <v>0.09039494000331191</v>
       </c>
       <c r="M157" t="n">
         <v>2.712742786845241</v>
       </c>
       <c r="N157" t="n">
-        <v>0.116863294129265</v>
+        <v>0.1101050341933649</v>
       </c>
       <c r="O157" t="n">
         <v>2.712742786845241</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06209079593168641</v>
+        <v>0.06080566615234904</v>
       </c>
       <c r="G158" t="n">
         <v>2.742229121484864</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06209079593168641</v>
+        <v>0.06080566615234904</v>
       </c>
       <c r="K158" t="n">
         <v>2.742229121484864</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07204930130622415</v>
+        <v>0.09109277381680123</v>
       </c>
       <c r="M158" t="n">
         <v>2.742229121484864</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1150366533567618</v>
+        <v>0.1116315569669954</v>
       </c>
       <c r="O158" t="n">
         <v>2.742229121484864</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06185177260188746</v>
+        <v>0.05919553865115226</v>
       </c>
       <c r="G159" t="n">
         <v>2.771715456124486</v>
       </c>
       <c r="J159" t="n">
-        <v>0.06185177260188746</v>
+        <v>0.05919553865115226</v>
       </c>
       <c r="K159" t="n">
         <v>2.771715456124486</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07335364398646614</v>
+        <v>0.08926501254007549</v>
       </c>
       <c r="M159" t="n">
         <v>2.771715456124486</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1158899636220628</v>
+        <v>0.1128241603960799</v>
       </c>
       <c r="O159" t="n">
         <v>2.771715456124486</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06141506751110582</v>
+        <v>0.05965054187552311</v>
       </c>
       <c r="G160" t="n">
         <v>2.801201790764108</v>
       </c>
       <c r="J160" t="n">
-        <v>0.06141506751110582</v>
+        <v>0.05965054187552311</v>
       </c>
       <c r="K160" t="n">
         <v>2.801201790764108</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07111183601072281</v>
+        <v>0.08939507283210056</v>
       </c>
       <c r="M160" t="n">
         <v>2.801201790764108</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1154416270317245</v>
+        <v>0.1088357733964327</v>
       </c>
       <c r="O160" t="n">
         <v>2.801201790764108</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06216570852670182</v>
+        <v>0.06044735658166027</v>
       </c>
       <c r="G161" t="n">
         <v>2.83068812540373</v>
       </c>
       <c r="J161" t="n">
-        <v>0.06216570852670182</v>
+        <v>0.06044735658166027</v>
       </c>
       <c r="K161" t="n">
         <v>2.83068812540373</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07088285720827497</v>
+        <v>0.09133679913639005</v>
       </c>
       <c r="M161" t="n">
         <v>2.83068812540373</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1118937515248021</v>
+        <v>0.1117373977410968</v>
       </c>
       <c r="O161" t="n">
         <v>2.83068812540373</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06115974043002651</v>
+        <v>0.05871813649078439</v>
       </c>
       <c r="G162" t="n">
         <v>2.860174460043352</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06115974043002651</v>
+        <v>0.05871813649078439</v>
       </c>
       <c r="K162" t="n">
         <v>2.860174460043352</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07019837954836462</v>
+        <v>0.08824370561946629</v>
       </c>
       <c r="M162" t="n">
         <v>2.860174460043352</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1122236787778111</v>
+        <v>0.1097732426932174</v>
       </c>
       <c r="O162" t="n">
         <v>2.860174460043352</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06128885050980237</v>
+        <v>0.05915260682259103</v>
       </c>
       <c r="G163" t="n">
         <v>2.889660794682974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06128885050980237</v>
+        <v>0.05915260682259103</v>
       </c>
       <c r="K163" t="n">
         <v>2.889660794682974</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07012864963296796</v>
+        <v>0.08998961186097122</v>
       </c>
       <c r="M163" t="n">
         <v>2.889660794682974</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1127291889359588</v>
+        <v>0.1097750342175494</v>
       </c>
       <c r="O163" t="n">
         <v>2.889660794682974</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06175220238216602</v>
+        <v>0.06001599175607902</v>
       </c>
       <c r="G164" t="n">
         <v>2.919147129322597</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06175220238216602</v>
+        <v>0.06001599175607902</v>
       </c>
       <c r="K164" t="n">
         <v>2.919147129322597</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07061719916942838</v>
+        <v>0.08794000983891005</v>
       </c>
       <c r="M164" t="n">
         <v>2.919147129322597</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1144005229911857</v>
+        <v>0.1081430559813259</v>
       </c>
       <c r="O164" t="n">
         <v>2.919147129322597</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06142867293366183</v>
+        <v>0.05894883535014681</v>
       </c>
       <c r="G165" t="n">
         <v>2.948633463962219</v>
       </c>
       <c r="J165" t="n">
-        <v>0.06142867293366183</v>
+        <v>0.05894883535014681</v>
       </c>
       <c r="K165" t="n">
         <v>2.948633463962219</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06884466009744862</v>
+        <v>0.08769356077989959</v>
       </c>
       <c r="M165" t="n">
         <v>2.948633463962219</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1126442355220801</v>
+        <v>0.1090337313979135</v>
       </c>
       <c r="O165" t="n">
         <v>2.948633463962219</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05903280107806474</v>
+        <v>0.05943255260550749</v>
       </c>
       <c r="G166" t="n">
         <v>2.978119798601841</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05903280107806474</v>
+        <v>0.05943255260550749</v>
       </c>
       <c r="K166" t="n">
         <v>2.978119798601841</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06799733136653742</v>
+        <v>0.08825110890471446</v>
       </c>
       <c r="M166" t="n">
         <v>2.978119798601841</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1110487946113414</v>
+        <v>0.1061633038028624</v>
       </c>
       <c r="O166" t="n">
         <v>2.978119798601841</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05869058222733992</v>
+        <v>0.05755526055690163</v>
       </c>
       <c r="G167" t="n">
         <v>3.007606133241463</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05869058222733992</v>
+        <v>0.05755526055690163</v>
       </c>
       <c r="K167" t="n">
         <v>3.007606133241463</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06994200403142788</v>
+        <v>0.08662668691832057</v>
       </c>
       <c r="M167" t="n">
         <v>3.007606133241463</v>
       </c>
       <c r="N167" t="n">
-        <v>0.109492444421602</v>
+        <v>0.1098579408601299</v>
       </c>
       <c r="O167" t="n">
         <v>3.007606133241463</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05971879111203977</v>
+        <v>0.05946675208618001</v>
       </c>
       <c r="G168" t="n">
         <v>3.037092467881085</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05971879111203977</v>
+        <v>0.05946675208618001</v>
       </c>
       <c r="K168" t="n">
         <v>3.037092467881085</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06955128464003041</v>
+        <v>0.086358394376709</v>
       </c>
       <c r="M168" t="n">
         <v>3.037092467881085</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1105081111285651</v>
+        <v>0.1076686503676747</v>
       </c>
       <c r="O168" t="n">
         <v>3.037092467881085</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05938964516199356</v>
+        <v>0.0586898445295888</v>
       </c>
       <c r="G169" t="n">
         <v>3.066578802520707</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05938964516199356</v>
+        <v>0.0586898445295888</v>
       </c>
       <c r="K169" t="n">
         <v>3.066578802520707</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06811016429589185</v>
+        <v>0.08594544832806597</v>
       </c>
       <c r="M169" t="n">
         <v>3.066578802520707</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1122659670175171</v>
+        <v>0.1069352089492825</v>
       </c>
       <c r="O169" t="n">
         <v>3.066578802520707</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05942647888587351</v>
+        <v>0.05821415112505162</v>
       </c>
       <c r="G170" t="n">
         <v>3.09606513716033</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05942647888587351</v>
+        <v>0.05821415112505162</v>
       </c>
       <c r="K170" t="n">
         <v>3.09606513716033</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06928586586995629</v>
+        <v>0.085295576993872</v>
       </c>
       <c r="M170" t="n">
         <v>3.09606513716033</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1091341567709241</v>
+        <v>0.1061944943366113</v>
       </c>
       <c r="O170" t="n">
         <v>3.09606513716033</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05797375511323564</v>
+        <v>0.05870430961275333</v>
       </c>
       <c r="G171" t="n">
         <v>3.125551471799952</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05797375511323564</v>
+        <v>0.05870430961275333</v>
       </c>
       <c r="K171" t="n">
         <v>3.125551471799952</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06742553101747331</v>
+        <v>0.08792652162963975</v>
       </c>
       <c r="M171" t="n">
         <v>3.125551471799952</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1075203046779694</v>
+        <v>0.1073664811654814</v>
       </c>
       <c r="O171" t="n">
         <v>3.125551471799952</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05913753057555644</v>
+        <v>0.05818268189705259</v>
       </c>
       <c r="G172" t="n">
         <v>3.155037806439574</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05913753057555644</v>
+        <v>0.05818268189705259</v>
       </c>
       <c r="K172" t="n">
         <v>3.155037806439574</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06793863976419508</v>
+        <v>0.08771337058348354</v>
       </c>
       <c r="M172" t="n">
         <v>3.155037806439574</v>
       </c>
       <c r="N172" t="n">
-        <v>0.107355237439606</v>
+        <v>0.1041472204739653</v>
       </c>
       <c r="O172" t="n">
         <v>3.155037806439574</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05751283749392191</v>
+        <v>0.0571831246450122</v>
       </c>
       <c r="G173" t="n">
         <v>3.184524141079196</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05751283749392191</v>
+        <v>0.0571831246450122</v>
       </c>
       <c r="K173" t="n">
         <v>3.184524141079196</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06657759397191541</v>
+        <v>0.08705401676605244</v>
       </c>
       <c r="M173" t="n">
         <v>3.184524141079196</v>
       </c>
       <c r="N173" t="n">
-        <v>0.110682330468788</v>
+        <v>0.106009622335182</v>
       </c>
       <c r="O173" t="n">
         <v>3.184524141079196</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05820650489692948</v>
+        <v>0.05736269757217898</v>
       </c>
       <c r="G174" t="n">
         <v>3.214010475718819</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05820650489692948</v>
+        <v>0.05736269757217898</v>
       </c>
       <c r="K174" t="n">
         <v>3.214010475718819</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06844860175989262</v>
+        <v>0.08474503012378343</v>
       </c>
       <c r="M174" t="n">
         <v>3.214010475718819</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1090503245225801</v>
+        <v>0.1050858094733922</v>
       </c>
       <c r="O174" t="n">
         <v>3.214010475718819</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05898765009534915</v>
+        <v>0.05724392365877777</v>
       </c>
       <c r="G175" t="n">
         <v>3.243496810358441</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05898765009534915</v>
+        <v>0.05724392365877777</v>
       </c>
       <c r="K175" t="n">
         <v>3.243496810358441</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06723323487416427</v>
+        <v>0.0851554513167382</v>
       </c>
       <c r="M175" t="n">
         <v>3.243496810358441</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1061951680447856</v>
+        <v>0.1058887128985456</v>
       </c>
       <c r="O175" t="n">
         <v>3.243496810358441</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05866422597543623</v>
+        <v>0.05732229956779691</v>
       </c>
       <c r="G176" t="n">
         <v>3.272983144998063</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05866422597543623</v>
+        <v>0.05732229956779691</v>
       </c>
       <c r="K176" t="n">
         <v>3.272983144998063</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06790473906889259</v>
+        <v>0.08502269048594804</v>
       </c>
       <c r="M176" t="n">
         <v>3.272983144998063</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1083983922444653</v>
+        <v>0.1065927857823552</v>
       </c>
       <c r="O176" t="n">
         <v>3.272983144998063</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05822292049321854</v>
+        <v>0.05823242843462788</v>
       </c>
       <c r="G177" t="n">
         <v>3.302469479637685</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05822292049321854</v>
+        <v>0.05823242843462788</v>
       </c>
       <c r="K177" t="n">
         <v>3.302469479637685</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06779510029364143</v>
+        <v>0.08417054489417221</v>
       </c>
       <c r="M177" t="n">
         <v>3.302469479637685</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1072129856623102</v>
+        <v>0.1042073979594655</v>
       </c>
       <c r="O177" t="n">
         <v>3.302469479637685</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0570980888448244</v>
+        <v>0.05793543948528758</v>
       </c>
       <c r="G178" t="n">
         <v>3.331955814277307</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0570980888448244</v>
+        <v>0.05793543948528758</v>
       </c>
       <c r="K178" t="n">
         <v>3.331955814277307</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06720015541083675</v>
+        <v>0.0851995087430794</v>
       </c>
       <c r="M178" t="n">
         <v>3.331955814277307</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1052258106071882</v>
+        <v>0.1052151412237591</v>
       </c>
       <c r="O178" t="n">
         <v>3.331955814277307</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05738342902318354</v>
+        <v>0.05723502381955094</v>
       </c>
       <c r="G179" t="n">
         <v>3.361442148916929</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05738342902318354</v>
+        <v>0.05723502381955094</v>
       </c>
       <c r="K179" t="n">
         <v>3.361442148916929</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06826614039004805</v>
+        <v>0.08387457143468328</v>
       </c>
       <c r="M179" t="n">
         <v>3.361442148916929</v>
       </c>
       <c r="N179" t="n">
-        <v>0.108463904018314</v>
+        <v>0.1037240247404793</v>
       </c>
       <c r="O179" t="n">
         <v>3.361442148916929</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05662606205332106</v>
+        <v>0.05609336713112632</v>
       </c>
       <c r="G180" t="n">
         <v>3.390928483556551</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05662606205332106</v>
+        <v>0.05609336713112632</v>
       </c>
       <c r="K180" t="n">
         <v>3.390928483556551</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06722926138260461</v>
+        <v>0.08427834602949165</v>
       </c>
       <c r="M180" t="n">
         <v>3.390928483556551</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1061512278021488</v>
+        <v>0.1007091047412256</v>
       </c>
       <c r="O180" t="n">
         <v>3.390928483556551</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05756802145456133</v>
+        <v>0.05710673845097589</v>
       </c>
       <c r="G181" t="n">
         <v>3.420414818196174</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05756802145456133</v>
+        <v>0.05710673845097589</v>
       </c>
       <c r="K181" t="n">
         <v>3.420414818196174</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06763123528151793</v>
+        <v>0.08213219711164725</v>
       </c>
       <c r="M181" t="n">
         <v>3.420414818196174</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1045214475433191</v>
+        <v>0.1002305511159573</v>
       </c>
       <c r="O181" t="n">
         <v>3.420414818196174</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.05732116975075629</v>
+        <v>0.05764077467344907</v>
       </c>
       <c r="G182" t="n">
         <v>3.449901152835796</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05732116975075629</v>
+        <v>0.05764077467344907</v>
       </c>
       <c r="K182" t="n">
         <v>3.449901152835796</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06772141528866471</v>
+        <v>0.08380041528582076</v>
       </c>
       <c r="M182" t="n">
         <v>3.449901152835796</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1075814575267339</v>
+        <v>0.1023876585792347</v>
       </c>
       <c r="O182" t="n">
         <v>3.449901152835796</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.05817621450848381</v>
+        <v>0.0558530119232226</v>
       </c>
       <c r="G183" t="n">
         <v>3.479387487475418</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05817621450848381</v>
+        <v>0.0558530119232226</v>
       </c>
       <c r="K183" t="n">
         <v>3.479387487475418</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06628649176397053</v>
+        <v>0.08171304832304481</v>
       </c>
       <c r="M183" t="n">
         <v>3.479387487475418</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1051379968424512</v>
+        <v>0.1024509406898896</v>
       </c>
       <c r="O183" t="n">
         <v>3.479387487475418</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05810744291281484</v>
+        <v>0.05653768358101393</v>
       </c>
       <c r="G184" t="n">
         <v>3.50887382211504</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05810744291281484</v>
+        <v>0.05653768358101393</v>
       </c>
       <c r="K184" t="n">
         <v>3.50887382211504</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06618802193217445</v>
+        <v>0.08017087714900911</v>
       </c>
       <c r="M184" t="n">
         <v>3.50887382211504</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1031230848360233</v>
+        <v>0.1011543290481652</v>
       </c>
       <c r="O184" t="n">
         <v>3.50887382211504</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05782014664085759</v>
+        <v>0.05571386394690373</v>
       </c>
       <c r="G185" t="n">
         <v>3.538360156754663</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05782014664085759</v>
+        <v>0.05571386394690373</v>
       </c>
       <c r="K185" t="n">
         <v>3.538360156754663</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06791030250912114</v>
+        <v>0.07927741977369927</v>
       </c>
       <c r="M185" t="n">
         <v>3.538360156754663</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1054011078360074</v>
+        <v>0.1000432881489147</v>
       </c>
       <c r="O185" t="n">
         <v>3.538360156754663</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05670088309028443</v>
+        <v>0.05713974136100469</v>
       </c>
       <c r="G186" t="n">
         <v>3.567846491394285</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05670088309028443</v>
+        <v>0.05713974136100469</v>
       </c>
       <c r="K186" t="n">
         <v>3.567846491394285</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06730859439799849</v>
+        <v>0.08029163357004789</v>
       </c>
       <c r="M186" t="n">
         <v>3.567846491394285</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1047533436240563</v>
+        <v>0.09828449892629659</v>
       </c>
       <c r="O186" t="n">
         <v>3.567846491394285</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.05704488217796351</v>
+        <v>0.0572155453053506</v>
       </c>
       <c r="G187" t="n">
         <v>3.597332826033907</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05704488217796351</v>
+        <v>0.0572155453053506</v>
       </c>
       <c r="K187" t="n">
         <v>3.597332826033907</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06752776564481516</v>
+        <v>0.07867428391660901</v>
       </c>
       <c r="M187" t="n">
         <v>3.597332826033907</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1024739806221962</v>
+        <v>0.09879818075572133</v>
       </c>
       <c r="O187" t="n">
         <v>3.597332826033907</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0562485215267985</v>
+        <v>0.05575652694189785</v>
       </c>
       <c r="G188" t="n">
         <v>3.626819160673529</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0562485215267985</v>
+        <v>0.05575652694189785</v>
       </c>
       <c r="K188" t="n">
         <v>3.626819160673529</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06682991283328794</v>
+        <v>0.07827761239403302</v>
       </c>
       <c r="M188" t="n">
         <v>3.626819160673529</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1049976812938873</v>
+        <v>0.09854766730279776</v>
       </c>
       <c r="O188" t="n">
         <v>3.626819160673529</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0562306508668532</v>
+        <v>0.05552977347562339</v>
       </c>
       <c r="G189" t="n">
         <v>3.656305495313152</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0562306508668532</v>
+        <v>0.05552977347562339</v>
       </c>
       <c r="K189" t="n">
         <v>3.656305495313152</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06602080050931949</v>
+        <v>0.0775849298098874</v>
       </c>
       <c r="M189" t="n">
         <v>3.656305495313152</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1015959362913255</v>
+        <v>0.09698632951309104</v>
       </c>
       <c r="O189" t="n">
         <v>3.656305495313152</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.05592879702321642</v>
+        <v>0.05712102722543652</v>
       </c>
       <c r="G190" t="n">
         <v>3.685791829952774</v>
       </c>
       <c r="J190" t="n">
-        <v>0.05592879702321642</v>
+        <v>0.05712102722543652</v>
       </c>
       <c r="K190" t="n">
         <v>3.685791829952774</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06840526511803016</v>
+        <v>0.07698195415867193</v>
       </c>
       <c r="M190" t="n">
         <v>3.685791829952774</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1020367632405854</v>
+        <v>0.09638701988833009</v>
       </c>
       <c r="O190" t="n">
         <v>3.685791829952774</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.05759836299353328</v>
+        <v>0.05555956072336613</v>
       </c>
       <c r="G191" t="n">
         <v>3.715278164592396</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05759836299353328</v>
+        <v>0.05555956072336613</v>
       </c>
       <c r="K191" t="n">
         <v>3.715278164592396</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06740561591548519</v>
+        <v>0.07692777394087945</v>
       </c>
       <c r="M191" t="n">
         <v>3.715278164592396</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1028366240322691</v>
+        <v>0.09444912285384571</v>
       </c>
       <c r="O191" t="n">
         <v>3.715278164592396</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.05700837532950021</v>
+        <v>0.05679835544492325</v>
       </c>
       <c r="G192" t="n">
         <v>3.744764499232018</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05700837532950021</v>
+        <v>0.05679835544492325</v>
       </c>
       <c r="K192" t="n">
         <v>3.744764499232018</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06778312420991064</v>
+        <v>0.07702368611368132</v>
       </c>
       <c r="M192" t="n">
         <v>3.744764499232018</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1016207704217203</v>
+        <v>0.09582440622197905</v>
       </c>
       <c r="O192" t="n">
         <v>3.744764499232018</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.05601487174286319</v>
+        <v>0.0563692938305879</v>
       </c>
       <c r="G193" t="n">
         <v>3.77425083387164</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05601487174286319</v>
+        <v>0.0563692938305879</v>
       </c>
       <c r="K193" t="n">
         <v>3.77425083387164</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06816118536567126</v>
+        <v>0.07612752766981473</v>
       </c>
       <c r="M193" t="n">
         <v>3.77425083387164</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1018090063466611</v>
+        <v>0.09343396512630457</v>
       </c>
       <c r="O193" t="n">
         <v>3.77425083387164</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05684691635898666</v>
+        <v>0.05628541879874645</v>
       </c>
       <c r="G194" t="n">
         <v>3.803737168511262</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05684691635898666</v>
+        <v>0.05628541879874645</v>
       </c>
       <c r="K194" t="n">
         <v>3.803737168511262</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06600928625630775</v>
+        <v>0.07607596523243508</v>
       </c>
       <c r="M194" t="n">
         <v>3.803737168511262</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1023446468436752</v>
+        <v>0.09340458436584441</v>
       </c>
       <c r="O194" t="n">
         <v>3.803737168511262</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.05584349910705685</v>
+        <v>0.05631271073239216</v>
       </c>
       <c r="G195" t="n">
         <v>3.833223503150884</v>
       </c>
       <c r="J195" t="n">
-        <v>0.05584349910705685</v>
+        <v>0.05631271073239216</v>
       </c>
       <c r="K195" t="n">
         <v>3.833223503150884</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06597714925103447</v>
+        <v>0.0756987751700202</v>
       </c>
       <c r="M195" t="n">
         <v>3.833223503150884</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1001199922660031</v>
+        <v>0.09259727463803824</v>
       </c>
       <c r="O195" t="n">
         <v>3.833223503150884</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.05545000284580718</v>
+        <v>0.05586423854086444</v>
       </c>
       <c r="G196" t="n">
         <v>3.862709837790506</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05545000284580718</v>
+        <v>0.05586423854086444</v>
       </c>
       <c r="K196" t="n">
         <v>3.862709837790506</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06775748758794436</v>
+        <v>0.07349890449490147</v>
       </c>
       <c r="M196" t="n">
         <v>3.862709837790506</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09954085510480179</v>
+        <v>0.09049903714007926</v>
       </c>
       <c r="O196" t="n">
         <v>3.862709837790506</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.05535891619789451</v>
+        <v>0.05640014040339848</v>
       </c>
       <c r="G197" t="n">
         <v>3.892196172430129</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05535891619789451</v>
+        <v>0.05640014040339848</v>
       </c>
       <c r="K197" t="n">
         <v>3.892196172430129</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06817009343209776</v>
+        <v>0.07462469111516783</v>
       </c>
       <c r="M197" t="n">
         <v>3.892196172430129</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09909342193287758</v>
+        <v>0.09141570181682188</v>
       </c>
       <c r="O197" t="n">
         <v>3.892196172430129</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.05547490563085047</v>
+        <v>0.05548306078864271</v>
       </c>
       <c r="G198" t="n">
         <v>3.921682507069751</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05547490563085047</v>
+        <v>0.05548306078864271</v>
       </c>
       <c r="K198" t="n">
         <v>3.921682507069751</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06641325232165637</v>
+        <v>0.07458256345974229</v>
       </c>
       <c r="M198" t="n">
         <v>3.921682507069751</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1002377767818054</v>
+        <v>0.08956985640606649</v>
       </c>
       <c r="O198" t="n">
         <v>3.921682507069751</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05644987611890164</v>
+        <v>0.05545507169229779</v>
       </c>
       <c r="G199" t="n">
         <v>3.951168841709373</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05644987611890164</v>
+        <v>0.05545507169229779</v>
       </c>
       <c r="K199" t="n">
         <v>3.951168841709373</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06725053919724114</v>
+        <v>0.07396290922039372</v>
       </c>
       <c r="M199" t="n">
         <v>3.951168841709373</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09944471114019854</v>
+        <v>0.08772384328578779</v>
       </c>
       <c r="O199" t="n">
         <v>3.951168841709373</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05567326616126703</v>
+        <v>0.05621920347327072</v>
       </c>
       <c r="G200" t="n">
         <v>3.980655176348995</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05567326616126703</v>
+        <v>0.05621920347327072</v>
       </c>
       <c r="K200" t="n">
         <v>3.980655176348995</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06627710924259371</v>
+        <v>0.07260814967753186</v>
       </c>
       <c r="M200" t="n">
         <v>3.980655176348995</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09937222485494845</v>
+        <v>0.08843673163566207</v>
       </c>
       <c r="O200" t="n">
         <v>3.980655176348995</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05599307964467001</v>
+        <v>0.05549049881108668</v>
       </c>
       <c r="G201" t="n">
         <v>4.010141510988618</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05599307964467001</v>
+        <v>0.05549049881108668</v>
       </c>
       <c r="K201" t="n">
         <v>4.010141510988618</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0671135058316768</v>
+        <v>0.0728186347676103</v>
       </c>
       <c r="M201" t="n">
         <v>4.010141510988618</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1000713914059315</v>
+        <v>0.08928633926452686</v>
       </c>
       <c r="O201" t="n">
         <v>4.010141510988618</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05534425413099027</v>
+        <v>0.05446048686577603</v>
       </c>
       <c r="G202" t="n">
         <v>4.03962784562824</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05534425413099027</v>
+        <v>0.05446048686577603</v>
       </c>
       <c r="K202" t="n">
         <v>4.03962784562824</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0667495776162588</v>
+        <v>0.07138507386408548</v>
       </c>
       <c r="M202" t="n">
         <v>4.03962784562824</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09792321738443131</v>
+        <v>0.0858258388722145</v>
       </c>
       <c r="O202" t="n">
         <v>4.03962784562824</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.05560735509431302</v>
+        <v>0.05528016712818132</v>
       </c>
       <c r="G203" t="n">
         <v>4.069114180267862</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05560735509431302</v>
+        <v>0.05528016712818132</v>
       </c>
       <c r="K203" t="n">
         <v>4.069114180267862</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06730611466331433</v>
+        <v>0.07116220687622417</v>
       </c>
       <c r="M203" t="n">
         <v>4.069114180267862</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09737103412317999</v>
+        <v>0.08687032576800997</v>
       </c>
       <c r="O203" t="n">
         <v>4.069114180267862</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.05579504523852685</v>
+        <v>0.05503366439394909</v>
       </c>
       <c r="G204" t="n">
         <v>4.098600514907484</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05579504523852685</v>
+        <v>0.05503366439394909</v>
       </c>
       <c r="K204" t="n">
         <v>4.098600514907484</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06780862405280139</v>
+        <v>0.07124218824991176</v>
       </c>
       <c r="M204" t="n">
         <v>4.098600514907484</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0985043700446597</v>
+        <v>0.08490351071112726</v>
       </c>
       <c r="O204" t="n">
         <v>4.098600514907484</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05511655955327936</v>
+        <v>0.0543102623900653</v>
       </c>
       <c r="G205" t="n">
         <v>4.128086849547106</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05511655955327936</v>
+        <v>0.0543102623900653</v>
       </c>
       <c r="K205" t="n">
         <v>4.128086849547106</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06790611572556718</v>
+        <v>0.07095682533884569</v>
       </c>
       <c r="M205" t="n">
         <v>4.128086849547106</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09617288946178065</v>
+        <v>0.08666411780423894</v>
       </c>
       <c r="O205" t="n">
         <v>4.128086849547106</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05650516902106176</v>
+        <v>0.05475609664134649</v>
       </c>
       <c r="G206" t="n">
         <v>4.157573184186728</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05650516902106176</v>
+        <v>0.05475609664134649</v>
       </c>
       <c r="K206" t="n">
         <v>4.157573184186728</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06779076537330128</v>
+        <v>0.0692091438910046</v>
       </c>
       <c r="M206" t="n">
         <v>4.157573184186728</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0960077901244827</v>
+        <v>0.08407426365450928</v>
       </c>
       <c r="O206" t="n">
         <v>4.157573184186728</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.05536578344289115</v>
+        <v>0.05502415435888709</v>
       </c>
       <c r="G207" t="n">
         <v>4.18705951882635</v>
       </c>
       <c r="J207" t="n">
-        <v>0.05536578344289115</v>
+        <v>0.05502415435888709</v>
       </c>
       <c r="K207" t="n">
         <v>4.18705951882635</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0679456160111538</v>
+        <v>0.06890951849593904</v>
       </c>
       <c r="M207" t="n">
         <v>4.18705951882635</v>
       </c>
       <c r="N207" t="n">
-        <v>0.096064481993207</v>
+        <v>0.08510504351312058</v>
       </c>
       <c r="O207" t="n">
         <v>4.18705951882635</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.05473476623850024</v>
+        <v>0.05491882700062792</v>
       </c>
       <c r="G208" t="n">
         <v>4.216545853465973</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05473476623850024</v>
+        <v>0.05491882700062792</v>
       </c>
       <c r="K208" t="n">
         <v>4.216545853465973</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06547352740043048</v>
+        <v>0.06836335888697642</v>
       </c>
       <c r="M208" t="n">
         <v>4.216545853465973</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09645521916747309</v>
+        <v>0.08359319921351745</v>
       </c>
       <c r="O208" t="n">
         <v>4.216545853465973</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0562362026931866</v>
+        <v>0.05409881130458133</v>
       </c>
       <c r="G209" t="n">
         <v>4.246032188105595</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0562362026931866</v>
+        <v>0.05409881130458133</v>
       </c>
       <c r="K209" t="n">
         <v>4.246032188105595</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0669156118447945</v>
+        <v>0.0683660606820769</v>
       </c>
       <c r="M209" t="n">
         <v>4.246032188105595</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09693935998159189</v>
+        <v>0.08152453290874984</v>
       </c>
       <c r="O209" t="n">
         <v>4.246032188105595</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0554953660521267</v>
+        <v>0.05549478801329799</v>
       </c>
       <c r="G210" t="n">
         <v>4.275518522745217</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0554953660521267</v>
+        <v>0.05549478801329799</v>
       </c>
       <c r="K210" t="n">
         <v>4.275518522745217</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06587694186524673</v>
+        <v>0.06715240198063074</v>
       </c>
       <c r="M210" t="n">
         <v>4.275518522745217</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09680639482347149</v>
+        <v>0.08106744897995767</v>
       </c>
       <c r="O210" t="n">
         <v>4.275518522745217</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.05452860805985215</v>
+        <v>0.05575567644764648</v>
       </c>
       <c r="G211" t="n">
         <v>4.30500485738484</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05452860805985215</v>
+        <v>0.05575567644764648</v>
       </c>
       <c r="K211" t="n">
         <v>4.30500485738484</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06682570427848476</v>
+        <v>0.06829416317250525</v>
       </c>
       <c r="M211" t="n">
         <v>4.30500485738484</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09501593268390007</v>
+        <v>0.08165276556585488</v>
       </c>
       <c r="O211" t="n">
         <v>4.30500485738484</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05596277769959662</v>
+        <v>0.05517889410968518</v>
       </c>
       <c r="G212" t="n">
         <v>4.334491192024462</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05596277769959662</v>
+        <v>0.05517889410968518</v>
       </c>
       <c r="K212" t="n">
         <v>4.334491192024462</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06662962194823069</v>
+        <v>0.06807168969838082</v>
       </c>
       <c r="M212" t="n">
         <v>4.334491192024462</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09572096100573059</v>
+        <v>0.0819063219226181</v>
       </c>
       <c r="O212" t="n">
         <v>4.334491192024462</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.05423804358071983</v>
+        <v>0.05462782900724174</v>
       </c>
       <c r="G213" t="n">
         <v>4.363977526664084</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05423804358071983</v>
+        <v>0.05462782900724174</v>
       </c>
       <c r="K213" t="n">
         <v>4.363977526664084</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06728965400570715</v>
+        <v>0.06557399911085603</v>
       </c>
       <c r="M213" t="n">
         <v>4.363977526664084</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09635773502207727</v>
+        <v>0.08019596276577115</v>
       </c>
       <c r="O213" t="n">
         <v>4.363977526664084</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0540448950474932</v>
+        <v>0.05416159853430245</v>
       </c>
       <c r="G214" t="n">
         <v>4.393463861303706</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0540448950474932</v>
+        <v>0.05416159853430245</v>
       </c>
       <c r="K214" t="n">
         <v>4.393463861303706</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06578358916398168</v>
+        <v>0.06625097861897597</v>
       </c>
       <c r="M214" t="n">
         <v>4.393463861303706</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09524640240522358</v>
+        <v>0.08183467659278494</v>
       </c>
       <c r="O214" t="n">
         <v>4.393463861303706</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.05491169678230873</v>
+        <v>0.05436139250921919</v>
       </c>
       <c r="G215" t="n">
         <v>4.422950195943328</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05491169678230873</v>
+        <v>0.05436139250921919</v>
       </c>
       <c r="K215" t="n">
         <v>4.422950195943328</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06660387819617093</v>
+        <v>0.06555225234608593</v>
       </c>
       <c r="M215" t="n">
         <v>4.422950195943328</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09487082672876274</v>
+        <v>0.0787438901558617</v>
       </c>
       <c r="O215" t="n">
         <v>4.422950195943328</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.05515365349036953</v>
+        <v>0.0543039954952942</v>
       </c>
       <c r="G216" t="n">
         <v>4.452436530582951</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05515365349036953</v>
+        <v>0.0543039954952942</v>
       </c>
       <c r="K216" t="n">
         <v>4.452436530582951</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06713099619397662</v>
+        <v>0.06711129577747386</v>
       </c>
       <c r="M216" t="n">
         <v>4.452436530582951</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09458391179356014</v>
+        <v>0.07849098947433071</v>
       </c>
       <c r="O216" t="n">
         <v>4.452436530582951</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.05440712053933094</v>
+        <v>0.05431796907672512</v>
       </c>
       <c r="G217" t="n">
         <v>4.481922865222573</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05440712053933094</v>
+        <v>0.05431796907672512</v>
       </c>
       <c r="K217" t="n">
         <v>4.481922865222573</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0660090032290372</v>
+        <v>0.06687898194944623</v>
       </c>
       <c r="M217" t="n">
         <v>4.481922865222573</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09265565608033538</v>
+        <v>0.07961339251778247</v>
       </c>
       <c r="O217" t="n">
         <v>4.481922865222573</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05464334032237122</v>
+        <v>0.05366895220701663</v>
       </c>
       <c r="G218" t="n">
         <v>4.511409199862195</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05464334032237122</v>
+        <v>0.05366895220701663</v>
       </c>
       <c r="K218" t="n">
         <v>4.511409199862195</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06569510870390659</v>
+        <v>0.06671353908593004</v>
       </c>
       <c r="M218" t="n">
         <v>4.511409199862195</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09279854300411935</v>
+        <v>0.07858879893603211</v>
       </c>
       <c r="O218" t="n">
         <v>4.511409199862195</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.05419117734938758</v>
+        <v>0.05403902166825145</v>
       </c>
       <c r="G219" t="n">
         <v>4.540895534501817</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05419117734938758</v>
+        <v>0.05403902166825145</v>
       </c>
       <c r="K219" t="n">
         <v>4.540895534501817</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0669108027829802</v>
+        <v>0.0656997426291949</v>
       </c>
       <c r="M219" t="n">
         <v>4.540895534501817</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09241089177048098</v>
+        <v>0.07938119198098119</v>
       </c>
       <c r="O219" t="n">
         <v>4.540895534501817</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.05443794851763915</v>
+        <v>0.0546482439221981</v>
       </c>
       <c r="G220" t="n">
         <v>4.570381869141439</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05443794851763915</v>
+        <v>0.0546482439221981</v>
       </c>
       <c r="K220" t="n">
         <v>4.570381869141439</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06643991343849706</v>
+        <v>0.06661395076588156</v>
       </c>
       <c r="M220" t="n">
         <v>4.570381869141439</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09075564324208911</v>
+        <v>0.07967232575436391</v>
       </c>
       <c r="O220" t="n">
         <v>4.570381869141439</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.05425779719982979</v>
+        <v>0.05453154664851573</v>
       </c>
       <c r="G221" t="n">
         <v>4.599868203781061</v>
       </c>
       <c r="J221" t="n">
-        <v>0.05425779719982979</v>
+        <v>0.05453154664851573</v>
       </c>
       <c r="K221" t="n">
         <v>4.599868203781061</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06562532770151337</v>
+        <v>0.06591026917281356</v>
       </c>
       <c r="M221" t="n">
         <v>4.599868203781061</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09151673604291982</v>
+        <v>0.07889528184963404</v>
       </c>
       <c r="O221" t="n">
         <v>4.599868203781061</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.05488964484994482</v>
+        <v>0.05465405101152552</v>
       </c>
       <c r="G222" t="n">
         <v>4.629354538420683</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05488964484994482</v>
+        <v>0.05465405101152552</v>
       </c>
       <c r="K222" t="n">
         <v>4.629354538420683</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06643401390612677</v>
+        <v>0.06493522694496434</v>
       </c>
       <c r="M222" t="n">
         <v>4.629354538420683</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09175747707307835</v>
+        <v>0.07931614440454722</v>
       </c>
       <c r="O222" t="n">
         <v>4.629354538420683</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0538808933244234</v>
+        <v>0.05377831589673016</v>
       </c>
       <c r="G223" t="n">
         <v>4.658840873060305</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0538808933244234</v>
+        <v>0.05377831589673016</v>
       </c>
       <c r="K223" t="n">
         <v>4.658840873060305</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06738763740652992</v>
+        <v>0.06675992921539414</v>
       </c>
       <c r="M223" t="n">
         <v>4.658840873060305</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09066222645553973</v>
+        <v>0.07784887371085485</v>
       </c>
       <c r="O223" t="n">
         <v>4.658840873060305</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.05474664816683203</v>
+        <v>0.05366023700415121</v>
       </c>
       <c r="G224" t="n">
         <v>4.688327207699928</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05474664816683203</v>
+        <v>0.05366023700415121</v>
       </c>
       <c r="K224" t="n">
         <v>4.688327207699928</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06548103612934369</v>
+        <v>0.06652224030091096</v>
       </c>
       <c r="M224" t="n">
         <v>4.688327207699928</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09221762827100098</v>
+        <v>0.078845574329285</v>
       </c>
       <c r="O224" t="n">
         <v>4.688327207699928</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.05519950288195553</v>
+        <v>0.05249773328787764</v>
       </c>
       <c r="G225" t="n">
         <v>4.71781354233955</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05519950288195553</v>
+        <v>0.05249773328787764</v>
       </c>
       <c r="K225" t="n">
         <v>4.71781354233955</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06555516133971011</v>
+        <v>0.06507145839289073</v>
       </c>
       <c r="M225" t="n">
         <v>4.71781354233955</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08984567847624381</v>
+        <v>0.07780150302938978</v>
       </c>
       <c r="O225" t="n">
         <v>4.71781354233955</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.05589663005559677</v>
+        <v>0.05321502810202883</v>
       </c>
       <c r="G226" t="n">
         <v>4.747299876979172</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05589663005559677</v>
+        <v>0.05321502810202883</v>
       </c>
       <c r="K226" t="n">
         <v>4.747299876979172</v>
       </c>
       <c r="L226" t="n">
-        <v>0.066199119744228</v>
+        <v>0.065511084792977</v>
       </c>
       <c r="M226" t="n">
         <v>4.747299876979172</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09062064840533783</v>
+        <v>0.08054210678979815</v>
       </c>
       <c r="O226" t="n">
         <v>4.747299876979172</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05568731764836133</v>
+        <v>0.05370100844545173</v>
       </c>
       <c r="G227" t="n">
         <v>4.776786211618794</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05568731764836133</v>
+        <v>0.05370100844545173</v>
       </c>
       <c r="K227" t="n">
         <v>4.776786211618794</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0648630575090357</v>
+        <v>0.06467230556862384</v>
       </c>
       <c r="M227" t="n">
         <v>4.776786211618794</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09105032667615442</v>
+        <v>0.08052059416454206</v>
       </c>
       <c r="O227" t="n">
         <v>4.776786211618794</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0544149009599945</v>
+        <v>0.05326316734644702</v>
       </c>
       <c r="G228" t="n">
         <v>4.806272546258417</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0544149009599945</v>
+        <v>0.05326316734644702</v>
       </c>
       <c r="K228" t="n">
         <v>4.806272546258417</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06489343644531924</v>
+        <v>0.0648878423293759</v>
       </c>
       <c r="M228" t="n">
         <v>4.806272546258417</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09041272871389526</v>
+        <v>0.07909789970616678</v>
       </c>
       <c r="O228" t="n">
         <v>4.806272546258417</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05537279283274998</v>
+        <v>0.05212360749995139</v>
       </c>
       <c r="G229" t="n">
         <v>4.835758880898039</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05537279283274998</v>
+        <v>0.05212360749995139</v>
       </c>
       <c r="K229" t="n">
         <v>4.835758880898039</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06484870821970769</v>
+        <v>0.06570458120466195</v>
       </c>
       <c r="M229" t="n">
         <v>4.835758880898039</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08971670145971121</v>
+        <v>0.0793614108200351</v>
       </c>
       <c r="O229" t="n">
         <v>4.835758880898039</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.05476318497567775</v>
+        <v>0.05172624167997768</v>
       </c>
       <c r="G230" t="n">
         <v>4.865245215537661</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05476318497567775</v>
+        <v>0.05172624167997768</v>
       </c>
       <c r="K230" t="n">
         <v>4.865245215537661</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06529284628102484</v>
+        <v>0.06483085130207494</v>
       </c>
       <c r="M230" t="n">
         <v>4.865245215537661</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09096525061207557</v>
+        <v>0.08086031174192304</v>
       </c>
       <c r="O230" t="n">
         <v>4.865245215537661</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05437099561458507</v>
+        <v>0.05148491533060713</v>
       </c>
       <c r="G231" t="n">
         <v>4.894731550177283</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05437099561458507</v>
+        <v>0.05148491533060713</v>
       </c>
       <c r="K231" t="n">
         <v>4.894731550177283</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06482066705864262</v>
+        <v>0.06501447583656475</v>
       </c>
       <c r="M231" t="n">
         <v>4.894731550177283</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09113338800022777</v>
+        <v>0.08104413940583031</v>
       </c>
       <c r="O231" t="n">
         <v>4.894731550177283</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05563797945359222</v>
+        <v>0.05174830934127564</v>
       </c>
       <c r="G232" t="n">
         <v>4.924217884816906</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05563797945359222</v>
+        <v>0.05174830934127564</v>
       </c>
       <c r="K232" t="n">
         <v>4.924217884816906</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06459887932246579</v>
+        <v>0.06492025971999395</v>
       </c>
       <c r="M232" t="n">
         <v>4.924217884816906</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09063741186394365</v>
+        <v>0.08087930985274926</v>
       </c>
       <c r="O232" t="n">
         <v>4.924217884816906</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05552812075464038</v>
+        <v>0.05215685881298213</v>
       </c>
       <c r="G233" t="n">
         <v>4.953704219456528</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05552812075464038</v>
+        <v>0.05215685881298213</v>
       </c>
       <c r="K233" t="n">
         <v>4.953704219456528</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06449088182729612</v>
+        <v>0.06543687955110117</v>
       </c>
       <c r="M233" t="n">
         <v>4.953704219456528</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08994185729225487</v>
+        <v>0.07873308160058384</v>
       </c>
       <c r="O233" t="n">
         <v>4.953704219456528</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05430783608631635</v>
+        <v>0.05178873027217816</v>
       </c>
       <c r="G234" t="n">
         <v>4.98319055409615</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05430783608631635</v>
+        <v>0.05178873027217816</v>
       </c>
       <c r="K234" t="n">
         <v>4.98319055409615</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0639958928267723</v>
+        <v>0.0672879620700659</v>
       </c>
       <c r="M234" t="n">
         <v>4.98319055409615</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08829162919287001</v>
+        <v>0.08047230019503281</v>
       </c>
       <c r="O234" t="n">
         <v>4.98319055409615</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05545566218926064</v>
+        <v>0.05074966467281811</v>
       </c>
       <c r="G235" t="n">
         <v>5.012676888735772</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05545566218926064</v>
+        <v>0.05074966467281811</v>
       </c>
       <c r="K235" t="n">
         <v>5.012676888735772</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06469002411097577</v>
+        <v>0.06620858833649712</v>
       </c>
       <c r="M235" t="n">
         <v>5.012676888735772</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08723923841458997</v>
+        <v>0.08126349322937684</v>
       </c>
       <c r="O235" t="n">
         <v>5.012676888735772</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05552550897147526</v>
+        <v>0.05037645502815291</v>
       </c>
       <c r="G236" t="n">
         <v>5.042163223375394</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05552550897147526</v>
+        <v>0.05037645502815291</v>
       </c>
       <c r="K236" t="n">
         <v>5.042163223375394</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06510336061076075</v>
+        <v>0.06756146204361758</v>
       </c>
       <c r="M236" t="n">
         <v>5.042163223375394</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08777742028336252</v>
+        <v>0.08027985915258226</v>
       </c>
       <c r="O236" t="n">
         <v>5.042163223375394</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05529239143163474</v>
+        <v>0.05129234185010832</v>
       </c>
       <c r="G237" t="n">
         <v>5.071649558015016</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05529239143163474</v>
+        <v>0.05129234185010832</v>
       </c>
       <c r="K237" t="n">
         <v>5.071649558015016</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06422166016018094</v>
+        <v>0.06562944301721438</v>
       </c>
       <c r="M237" t="n">
         <v>5.071649558015016</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08858399262074677</v>
+        <v>0.07943394698011268</v>
       </c>
       <c r="O237" t="n">
         <v>5.071649558015016</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05574182985685148</v>
+        <v>0.05147478220715073</v>
       </c>
       <c r="G238" t="n">
         <v>5.101135892654638</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05574182985685148</v>
+        <v>0.05147478220715073</v>
       </c>
       <c r="K238" t="n">
         <v>5.101135892654638</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06273509132631203</v>
+        <v>0.06793828382937304</v>
       </c>
       <c r="M238" t="n">
         <v>5.101135892654638</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08809886981233378</v>
+        <v>0.08177961289054243</v>
       </c>
       <c r="O238" t="n">
         <v>5.101135892654638</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05553645251405532</v>
+        <v>0.05145866828214155</v>
       </c>
       <c r="G239" t="n">
         <v>5.130622227294261</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05553645251405532</v>
+        <v>0.05145866828214155</v>
       </c>
       <c r="K239" t="n">
         <v>5.130622227294261</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06311204786258942</v>
+        <v>0.06777344954991929</v>
       </c>
       <c r="M239" t="n">
         <v>5.130622227294261</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08784296942028798</v>
+        <v>0.08129268212391758</v>
       </c>
       <c r="O239" t="n">
         <v>5.130622227294261</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05562371939811903</v>
+        <v>0.05001077139524566</v>
       </c>
       <c r="G240" t="n">
         <v>5.160108561933883</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05562371939811903</v>
+        <v>0.05001077139524566</v>
       </c>
       <c r="K240" t="n">
         <v>5.160108561933883</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06410715868016106</v>
+        <v>0.06612594732317138</v>
       </c>
       <c r="M240" t="n">
         <v>5.160108561933883</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08669775809727162</v>
+        <v>0.08022928694525516</v>
       </c>
       <c r="O240" t="n">
         <v>5.160108561933883</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05522971094608588</v>
+        <v>0.05005754250363545</v>
       </c>
       <c r="G241" t="n">
         <v>5.189594896573505</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05522971094608588</v>
+        <v>0.05005754250363545</v>
       </c>
       <c r="K241" t="n">
         <v>5.189594896573505</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06305608556811132</v>
+        <v>0.06691535884913481</v>
       </c>
       <c r="M241" t="n">
         <v>5.189594896573505</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08711373942498751</v>
+        <v>0.08212692426757645</v>
       </c>
       <c r="O241" t="n">
         <v>5.189594896573505</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05398679938631405</v>
+        <v>0.04932720078468216</v>
       </c>
       <c r="G242" t="n">
         <v>5.219081231213127</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05398679938631405</v>
+        <v>0.04932720078468216</v>
       </c>
       <c r="K242" t="n">
         <v>5.219081231213127</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06362822553566798</v>
+        <v>0.06621909526971077</v>
       </c>
       <c r="M242" t="n">
         <v>5.219081231213127</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08798494317850306</v>
+        <v>0.08282710239337077</v>
       </c>
       <c r="O242" t="n">
         <v>5.219081231213127</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05406447293847211</v>
+        <v>0.0486710618714125</v>
       </c>
       <c r="G243" t="n">
         <v>5.248567565852749</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05406447293847211</v>
+        <v>0.0486710618714125</v>
       </c>
       <c r="K243" t="n">
         <v>5.248567565852749</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06377123797540414</v>
+        <v>0.06689475645881032</v>
       </c>
       <c r="M243" t="n">
         <v>5.248567565852749</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0876417550558297</v>
+        <v>0.08224387106103501</v>
       </c>
       <c r="O243" t="n">
         <v>5.248567565852749</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05495911746500878</v>
+        <v>0.04844025496109277</v>
       </c>
       <c r="G244" t="n">
         <v>5.278053900492371</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05495911746500878</v>
+        <v>0.04844025496109277</v>
       </c>
       <c r="K244" t="n">
         <v>5.278053900492371</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06186655253329942</v>
+        <v>0.06814296782295315</v>
       </c>
       <c r="M244" t="n">
         <v>5.278053900492371</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08602525762844539</v>
+        <v>0.08300519422184975</v>
       </c>
       <c r="O244" t="n">
         <v>5.278053900492371</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05472908547059387</v>
+        <v>0.0493095005200691</v>
       </c>
       <c r="G245" t="n">
         <v>5.307540235131994</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05472908547059387</v>
+        <v>0.0493095005200691</v>
       </c>
       <c r="K245" t="n">
         <v>5.307540235131994</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06134568949820688</v>
+        <v>0.06875075952199088</v>
       </c>
       <c r="M245" t="n">
         <v>5.307540235131994</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08534107292334089</v>
+        <v>0.08341017024849079</v>
       </c>
       <c r="O245" t="n">
         <v>5.307540235131994</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05398044014243343</v>
+        <v>0.04893440492739147</v>
       </c>
       <c r="G246" t="n">
         <v>5.337026569771616</v>
       </c>
       <c r="J246" t="n">
-        <v>0.05398044014243343</v>
+        <v>0.04893440492739147</v>
       </c>
       <c r="K246" t="n">
         <v>5.337026569771616</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06311418523138866</v>
+        <v>0.06895527574148326</v>
       </c>
       <c r="M246" t="n">
         <v>5.337026569771616</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08774648099735738</v>
+        <v>0.08349565065222535</v>
       </c>
       <c r="O246" t="n">
         <v>5.337026569771616</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05491361955496733</v>
+        <v>0.04827763223750959</v>
       </c>
       <c r="G247" t="n">
         <v>5.366512904411239</v>
       </c>
       <c r="J247" t="n">
-        <v>0.05491361955496733</v>
+        <v>0.04827763223750959</v>
       </c>
       <c r="K247" t="n">
         <v>5.366512904411239</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06203910387060176</v>
+        <v>0.06848088899046445</v>
       </c>
       <c r="M247" t="n">
         <v>5.366512904411239</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08491354648179751</v>
+        <v>0.08350601603062779</v>
       </c>
       <c r="O247" t="n">
         <v>5.366512904411239</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05412805809103061</v>
+        <v>0.04815770437292632</v>
       </c>
       <c r="G248" t="n">
         <v>5.395999239050861</v>
       </c>
       <c r="J248" t="n">
-        <v>0.05412805809103061</v>
+        <v>0.04815770437292632</v>
       </c>
       <c r="K248" t="n">
         <v>5.395999239050861</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06152661415127078</v>
+        <v>0.06813707520754134</v>
       </c>
       <c r="M248" t="n">
         <v>5.395999239050861</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08441093375609542</v>
+        <v>0.08435641491926721</v>
       </c>
       <c r="O248" t="n">
         <v>5.395999239050861</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05466178939345689</v>
+        <v>0.04742807984160383</v>
       </c>
       <c r="G249" t="n">
         <v>5.425485573690483</v>
       </c>
       <c r="J249" t="n">
-        <v>0.05466178939345689</v>
+        <v>0.04742807984160383</v>
       </c>
       <c r="K249" t="n">
         <v>5.425485573690483</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06172744368506645</v>
+        <v>0.06830819146781585</v>
       </c>
       <c r="M249" t="n">
         <v>5.425485573690483</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08430129461483123</v>
+        <v>0.08332148721678836</v>
       </c>
       <c r="O249" t="n">
         <v>5.425485573690483</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05402312660222704</v>
+        <v>0.04701277930649778</v>
       </c>
       <c r="G250" t="n">
         <v>5.454971908330105</v>
       </c>
       <c r="J250" t="n">
-        <v>0.05402312660222704</v>
+        <v>0.04701277930649778</v>
       </c>
       <c r="K250" t="n">
         <v>5.454971908330105</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06063927082354794</v>
+        <v>0.07045691809728218</v>
       </c>
       <c r="M250" t="n">
         <v>5.454971908330105</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08382248181968348</v>
+        <v>0.08528690485298507</v>
       </c>
       <c r="O250" t="n">
         <v>5.454971908330105</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05449808747506776</v>
+        <v>0.04745756285239408</v>
       </c>
       <c r="G251" t="n">
         <v>5.484458242969727</v>
       </c>
       <c r="J251" t="n">
-        <v>0.05449808747506776</v>
+        <v>0.04745756285239408</v>
       </c>
       <c r="K251" t="n">
         <v>5.484458242969727</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06028172639329917</v>
+        <v>0.07011111447782052</v>
       </c>
       <c r="M251" t="n">
         <v>5.484458242969727</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08577964428101881</v>
+        <v>0.08461446050785411</v>
       </c>
       <c r="O251" t="n">
         <v>5.484458242969727</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05473022302618566</v>
+        <v>0.04733404396369007</v>
       </c>
       <c r="G252" t="n">
         <v>5.513944577609349</v>
       </c>
       <c r="J252" t="n">
-        <v>0.05473022302618566</v>
+        <v>0.04733404396369007</v>
       </c>
       <c r="K252" t="n">
         <v>5.513944577609349</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06014838102966332</v>
+        <v>0.07116043175785298</v>
       </c>
       <c r="M252" t="n">
         <v>5.513944577609349</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08428688986352054</v>
+        <v>0.08744647692381063</v>
       </c>
       <c r="O252" t="n">
         <v>5.513944577609349</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05427663360433876</v>
+        <v>0.04648912317327343</v>
       </c>
       <c r="G253" t="n">
         <v>5.543430912248971</v>
       </c>
       <c r="J253" t="n">
-        <v>0.05427663360433876</v>
+        <v>0.04648912317327343</v>
       </c>
       <c r="K253" t="n">
         <v>5.543430912248971</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05975987951691622</v>
+        <v>0.06990507233299045</v>
       </c>
       <c r="M253" t="n">
         <v>5.543430912248971</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08326361054438992</v>
+        <v>0.08681697435906845</v>
       </c>
       <c r="O253" t="n">
         <v>5.543430912248971</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05475805133426228</v>
+        <v>0.04628644882031616</v>
       </c>
       <c r="G254" t="n">
         <v>5.572917246888593</v>
       </c>
       <c r="J254" t="n">
-        <v>0.05475805133426228</v>
+        <v>0.04628644882031616</v>
       </c>
       <c r="K254" t="n">
         <v>5.572917246888593</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06001486309692522</v>
+        <v>0.06999315052514704</v>
       </c>
       <c r="M254" t="n">
         <v>5.572917246888593</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08416856191528917</v>
+        <v>0.08719337890520243</v>
       </c>
       <c r="O254" t="n">
         <v>5.572917246888593</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05442960655691379</v>
+        <v>0.04676524481934143</v>
       </c>
       <c r="G255" t="n">
         <v>5.602403581528216</v>
       </c>
       <c r="J255" t="n">
-        <v>0.05442960655691379</v>
+        <v>0.04676524481934143</v>
       </c>
       <c r="K255" t="n">
         <v>5.602403581528216</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05893464186845804</v>
+        <v>0.07101575181536762</v>
       </c>
       <c r="M255" t="n">
         <v>5.602403581528216</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08267041396656009</v>
+        <v>0.08875840841475452</v>
       </c>
       <c r="O255" t="n">
         <v>5.602403581528216</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.05496039540833392</v>
+        <v>0.04536769828256062</v>
       </c>
       <c r="G256" t="n">
         <v>5.631889916167838</v>
       </c>
       <c r="J256" t="n">
-        <v>0.05496039540833392</v>
+        <v>0.04536769828256062</v>
       </c>
       <c r="K256" t="n">
         <v>5.631889916167838</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05856925731339692</v>
+        <v>0.0719123934577052</v>
       </c>
       <c r="M256" t="n">
         <v>5.631889916167838</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08329332384979145</v>
+        <v>0.08709667926187145</v>
       </c>
       <c r="O256" t="n">
         <v>5.631889916167838</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05444922794768661</v>
+        <v>0.04597051797234651</v>
       </c>
       <c r="G257" t="n">
         <v>5.66137625080746</v>
       </c>
       <c r="J257" t="n">
-        <v>0.05444922794768661</v>
+        <v>0.04597051797234651</v>
       </c>
       <c r="K257" t="n">
         <v>5.66137625080746</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05918260513626086</v>
+        <v>0.07258874175527702</v>
       </c>
       <c r="M257" t="n">
         <v>5.66137625080746</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08258771636003095</v>
+        <v>0.08851651344970798</v>
       </c>
       <c r="O257" t="n">
         <v>5.66137625080746</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05363074381038296</v>
+        <v>0.04474578930501945</v>
       </c>
       <c r="G258" t="n">
         <v>5.690862585447082</v>
       </c>
       <c r="J258" t="n">
-        <v>0.05363074381038296</v>
+        <v>0.04474578930501945</v>
       </c>
       <c r="K258" t="n">
         <v>5.690862585447082</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05936611212396584</v>
+        <v>0.07350644121809671</v>
       </c>
       <c r="M258" t="n">
         <v>5.690862585447082</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08498325379436128</v>
+        <v>0.08912970317170001</v>
       </c>
       <c r="O258" t="n">
         <v>5.690862585447082</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05348779560621175</v>
+        <v>0.04534214173753232</v>
       </c>
       <c r="G259" t="n">
         <v>5.720348920086704</v>
       </c>
       <c r="J259" t="n">
-        <v>0.05348779560621175</v>
+        <v>0.04534214173753232</v>
       </c>
       <c r="K259" t="n">
         <v>5.720348920086704</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05765335176432755</v>
+        <v>0.07237995162108324</v>
       </c>
       <c r="M259" t="n">
         <v>5.720348920086704</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08389274554637208</v>
+        <v>0.0914200855717483</v>
       </c>
       <c r="O259" t="n">
         <v>5.720348920086704</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05422008545945237</v>
+        <v>0.04531467624097936</v>
       </c>
       <c r="G260" t="n">
         <v>5.749835254726326</v>
       </c>
       <c r="J260" t="n">
-        <v>0.05422008545945237</v>
+        <v>0.04531467624097936</v>
       </c>
       <c r="K260" t="n">
         <v>5.749835254726326</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05705104035352247</v>
+        <v>0.07209145670643671</v>
       </c>
       <c r="M260" t="n">
         <v>5.749835254726326</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08212510942282862</v>
+        <v>0.08992031704833588</v>
       </c>
       <c r="O260" t="n">
         <v>5.749835254726326</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0554819548919283</v>
+        <v>0.0451976170287996</v>
       </c>
       <c r="G261" t="n">
         <v>5.779321589365948</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0554819548919283</v>
+        <v>0.0451976170287996</v>
       </c>
       <c r="K261" t="n">
         <v>5.779321589365948</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05748487593097316</v>
+        <v>0.07480762953474029</v>
       </c>
       <c r="M261" t="n">
         <v>5.779321589365948</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08391158245920532</v>
+        <v>0.08983802022674037</v>
       </c>
       <c r="O261" t="n">
         <v>5.779321589365948</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05374746561325473</v>
+        <v>0.04452241755401242</v>
       </c>
       <c r="G262" t="n">
         <v>5.808807924005571</v>
       </c>
       <c r="J262" t="n">
-        <v>0.05374746561325473</v>
+        <v>0.04452241755401242</v>
       </c>
       <c r="K262" t="n">
         <v>5.808807924005571</v>
       </c>
       <c r="L262" t="n">
-        <v>0.058205065512409</v>
+        <v>0.07354780278039108</v>
       </c>
       <c r="M262" t="n">
         <v>5.808807924005571</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08441242232383656</v>
+        <v>0.09080410048333173</v>
       </c>
       <c r="O262" t="n">
         <v>5.808807924005571</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05462687074771765</v>
+        <v>0.04470184474571531</v>
       </c>
       <c r="G263" t="n">
         <v>5.838294258645194</v>
       </c>
       <c r="J263" t="n">
-        <v>0.05462687074771765</v>
+        <v>0.04470184474571531</v>
       </c>
       <c r="K263" t="n">
         <v>5.838294258645194</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05770294288599665</v>
+        <v>0.07516427412638202</v>
       </c>
       <c r="M263" t="n">
         <v>5.838294258645194</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08405360721017412</v>
+        <v>0.09297093149226844</v>
       </c>
       <c r="O263" t="n">
         <v>5.838294258645194</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05516657574805765</v>
+        <v>0.04408827054371441</v>
       </c>
       <c r="G264" t="n">
         <v>5.867780593284816</v>
       </c>
       <c r="J264" t="n">
-        <v>0.05516657574805765</v>
+        <v>0.04408827054371441</v>
       </c>
       <c r="K264" t="n">
         <v>5.867780593284816</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05660589060579452</v>
+        <v>0.07566038862527691</v>
       </c>
       <c r="M264" t="n">
         <v>5.867780593284816</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08322467192176876</v>
+        <v>0.09449083560588072</v>
       </c>
       <c r="O264" t="n">
         <v>5.867780593284816</v>
